--- a/results/LCIA/LCIA_results_uniquie.xlsx
+++ b/results/LCIA/LCIA_results_uniquie.xlsx
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.01314840718996605</v>
+        <v>0.01314840731963411</v>
       </c>
       <c r="C2">
-        <v>3.51215725180387</v>
+        <v>3.512157272114307</v>
       </c>
       <c r="D2">
-        <v>0.1443032247689084</v>
+        <v>0.1443032290059204</v>
       </c>
       <c r="E2">
-        <v>0.3971802334273813</v>
+        <v>0.3971802392165218</v>
       </c>
       <c r="F2">
-        <v>17.48812424016445</v>
+        <v>17.48812535518012</v>
       </c>
       <c r="G2">
-        <v>0.9955181271015734</v>
+        <v>0.9955181317332106</v>
       </c>
       <c r="H2">
-        <v>0.001273073921544463</v>
+        <v>0.001273073936949482</v>
       </c>
       <c r="I2">
-        <v>0.0001792159543989444</v>
+        <v>0.0001792159547171682</v>
       </c>
       <c r="J2">
-        <v>0.371441401007093</v>
+        <v>0.3714414040259378</v>
       </c>
       <c r="K2">
-        <v>4.19086380873322</v>
+        <v>4.190863915763699</v>
       </c>
       <c r="L2">
-        <v>-0.01630800199900002</v>
+        <v>-0.01630800189430088</v>
       </c>
       <c r="M2">
-        <v>0.4930867238175356</v>
+        <v>0.4930867230903957</v>
       </c>
       <c r="N2">
-        <v>0.05847859023598408</v>
+        <v>0.05847859024841448</v>
       </c>
       <c r="O2">
-        <v>1.217297203540424E-06</v>
+        <v>1.217297210177121E-06</v>
       </c>
       <c r="P2">
-        <v>0.006547867251403114</v>
+        <v>0.006547867314610588</v>
       </c>
       <c r="Q2">
-        <v>0.01084992330197981</v>
+        <v>0.01084992336096209</v>
       </c>
       <c r="R2">
-        <v>0.01123060093884433</v>
+        <v>0.01123060100198374</v>
       </c>
       <c r="S2">
-        <v>0.02739506015750023</v>
+        <v>0.02739506027421093</v>
       </c>
       <c r="T2">
-        <v>1.964003169777229E-08</v>
+        <v>1.964003181041297E-08</v>
       </c>
       <c r="U2">
-        <v>9.634236763096429E-06</v>
+        <v>9.634236856383275E-06</v>
       </c>
       <c r="V2">
-        <v>0.3057806289630986</v>
+        <v>0.3057806298709115</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.00588153620095249</v>
+        <v>0.005881535866989482</v>
       </c>
       <c r="C3">
-        <v>1.620435639134798</v>
+        <v>1.620435572225736</v>
       </c>
       <c r="D3">
-        <v>0.199452770723356</v>
+        <v>0.1994527668608046</v>
       </c>
       <c r="E3">
-        <v>0.2564716012928862</v>
+        <v>0.2564715962987656</v>
       </c>
       <c r="F3">
-        <v>12.38301369122967</v>
+        <v>12.38301372822447</v>
       </c>
       <c r="G3">
-        <v>0.4775876208795509</v>
+        <v>0.4775876027683795</v>
       </c>
       <c r="H3">
-        <v>0.001152285931985781</v>
+        <v>0.001152285908942057</v>
       </c>
       <c r="I3">
-        <v>0.0001457040690775305</v>
+        <v>0.0001457040668994422</v>
       </c>
       <c r="J3">
-        <v>0.3568364690162387</v>
+        <v>0.3568364702942792</v>
       </c>
       <c r="K3">
-        <v>3.224870673755132</v>
+        <v>3.22487062021334</v>
       </c>
       <c r="L3">
-        <v>0.4979559868941242</v>
+        <v>0.497955987061343</v>
       </c>
       <c r="M3">
-        <v>0.3041030941747574</v>
+        <v>0.3041030806839095</v>
       </c>
       <c r="N3">
-        <v>0.003897162428383</v>
+        <v>0.003897160966845339</v>
       </c>
       <c r="O3">
-        <v>8.874446176041909E-07</v>
+        <v>8.87444591954842E-07</v>
       </c>
       <c r="P3">
-        <v>0.003736434404631488</v>
+        <v>0.003736434220543955</v>
       </c>
       <c r="Q3">
-        <v>0.003513198596701882</v>
+        <v>0.003513198043930963</v>
       </c>
       <c r="R3">
-        <v>0.003688717341292226</v>
+        <v>0.00368871677415706</v>
       </c>
       <c r="S3">
-        <v>0.105273831275113</v>
+        <v>0.1052738310532153</v>
       </c>
       <c r="T3">
-        <v>1.003580896048442E-08</v>
+        <v>1.003580849119634E-08</v>
       </c>
       <c r="U3">
-        <v>6.013793894765648E-06</v>
+        <v>6.013793707947649E-06</v>
       </c>
       <c r="V3">
-        <v>0.1323508479507628</v>
+        <v>0.1323508417901402</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>7.075584102090281E-06</v>
+        <v>7.075583669482153E-06</v>
       </c>
       <c r="C4">
-        <v>0.002267682717628421</v>
+        <v>0.002267682638818421</v>
       </c>
       <c r="D4">
-        <v>0.0001775693652311593</v>
+        <v>0.0001775693600836384</v>
       </c>
       <c r="E4">
-        <v>0.0002258065614175909</v>
+        <v>0.0002258065544977913</v>
       </c>
       <c r="F4">
-        <v>0.009214410666768173</v>
+        <v>0.009214410194348514</v>
       </c>
       <c r="G4">
-        <v>0.0006563353026139897</v>
+        <v>0.0006563352813822118</v>
       </c>
       <c r="H4">
-        <v>4.590460850742032E-05</v>
+        <v>4.59046084831254E-05</v>
       </c>
       <c r="I4">
-        <v>6.32718972668778E-06</v>
+        <v>6.327189723516712E-06</v>
       </c>
       <c r="J4">
-        <v>0.0002510170503400409</v>
+        <v>0.0002510170494482985</v>
       </c>
       <c r="K4">
-        <v>0.002514161878549259</v>
+        <v>0.002514161773921247</v>
       </c>
       <c r="L4">
-        <v>0.0005445424831370772</v>
+        <v>0.0005445424850787999</v>
       </c>
       <c r="M4">
-        <v>0.0003042456084932227</v>
+        <v>0.000304245603813654</v>
       </c>
       <c r="N4">
-        <v>1.740177609991133E-05</v>
+        <v>1.740177487610893E-05</v>
       </c>
       <c r="O4">
-        <v>1.378191632504558E-09</v>
+        <v>1.378191603403226E-09</v>
       </c>
       <c r="P4">
-        <v>4.239919795326116E-06</v>
+        <v>4.239919571740036E-06</v>
       </c>
       <c r="Q4">
-        <v>4.706501404679293E-06</v>
+        <v>4.706500732730972E-06</v>
       </c>
       <c r="R4">
-        <v>4.981966387175466E-06</v>
+        <v>4.981965662565343E-06</v>
       </c>
       <c r="S4">
-        <v>9.127238826037092E-05</v>
+        <v>9.127238798797377E-05</v>
       </c>
       <c r="T4">
-        <v>4.219606353886265E-11</v>
+        <v>4.219606306548743E-11</v>
       </c>
       <c r="U4">
-        <v>6.388066626690991E-09</v>
+        <v>6.388066384958043E-09</v>
       </c>
       <c r="V4">
-        <v>0.0001913999679791641</v>
+        <v>0.0001913999608595052</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.0007510464696395794</v>
+        <v>0.0007510464720470623</v>
       </c>
       <c r="C5">
-        <v>0.1597931370586722</v>
+        <v>0.1597931373652305</v>
       </c>
       <c r="D5">
-        <v>0.008804676544035727</v>
+        <v>0.008804676619173149</v>
       </c>
       <c r="E5">
-        <v>0.03175372351145726</v>
+        <v>0.03175372361533831</v>
       </c>
       <c r="F5">
-        <v>0.9702857177475029</v>
+        <v>0.9702857344174958</v>
       </c>
       <c r="G5">
-        <v>0.04376007735804927</v>
+        <v>0.04376007742028272</v>
       </c>
       <c r="H5">
-        <v>4.959149637738236E-05</v>
+        <v>4.959149668645901E-05</v>
       </c>
       <c r="I5">
-        <v>3.988288535947238E-06</v>
+        <v>3.988288547009223E-06</v>
       </c>
       <c r="J5">
-        <v>0.02538863460188837</v>
+        <v>0.02538863459472854</v>
       </c>
       <c r="K5">
-        <v>0.2639290464417564</v>
+        <v>0.2639290484074447</v>
       </c>
       <c r="L5">
-        <v>0.001890647965686953</v>
+        <v>0.001890647954633818</v>
       </c>
       <c r="M5">
-        <v>0.003449361975909155</v>
+        <v>0.00344936223053064</v>
       </c>
       <c r="N5">
-        <v>0.004737481032605836</v>
+        <v>0.004737481037727519</v>
       </c>
       <c r="O5">
-        <v>4.314693638774051E-08</v>
+        <v>4.314693641154686E-08</v>
       </c>
       <c r="P5">
-        <v>0.0003387897205554762</v>
+        <v>0.0003387897212970972</v>
       </c>
       <c r="Q5">
-        <v>0.0005243994410548646</v>
+        <v>0.0005243994404171586</v>
       </c>
       <c r="R5">
-        <v>0.0005393667919867776</v>
+        <v>0.0005393667914509341</v>
       </c>
       <c r="S5">
-        <v>0.001085099704741334</v>
+        <v>0.001085099706871872</v>
       </c>
       <c r="T5">
-        <v>7.607061706780574E-10</v>
+        <v>7.607061746981665E-10</v>
       </c>
       <c r="U5">
-        <v>5.085436316527514E-07</v>
+        <v>5.085436328308912E-07</v>
       </c>
       <c r="V5">
-        <v>0.01215879520133186</v>
+        <v>0.01215879520663204</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002876687702756314</v>
+        <v>0.002876687807696459</v>
       </c>
       <c r="C6">
-        <v>1.276051766635886</v>
+        <v>1.27605177562593</v>
       </c>
       <c r="D6">
-        <v>0.03071327467934277</v>
+        <v>0.03071327771940949</v>
       </c>
       <c r="E6">
-        <v>0.03846176001323726</v>
+        <v>0.03846176417107288</v>
       </c>
       <c r="F6">
-        <v>3.892590410016959</v>
+        <v>3.892591318836664</v>
       </c>
       <c r="G6">
-        <v>0.3736933919009469</v>
+        <v>0.3736933941144197</v>
       </c>
       <c r="H6">
-        <v>0.0004287453214664837</v>
+        <v>0.0004287453281736821</v>
       </c>
       <c r="I6">
-        <v>0.0001834923741378967</v>
+        <v>0.0001834923740724462</v>
       </c>
       <c r="J6">
-        <v>0.030951846547713</v>
+        <v>0.030951849065865</v>
       </c>
       <c r="K6">
-        <v>0.7220290356644908</v>
+        <v>0.722029112145153</v>
       </c>
       <c r="L6">
-        <v>0.02922346761655189</v>
+        <v>0.02922346788467662</v>
       </c>
       <c r="M6">
-        <v>0.2575095405981522</v>
+        <v>0.2575095339074511</v>
       </c>
       <c r="N6">
-        <v>0.003099181212986351</v>
+        <v>0.003099180923033048</v>
       </c>
       <c r="O6">
-        <v>1.316035716855691E-06</v>
+        <v>1.316035721821226E-06</v>
       </c>
       <c r="P6">
-        <v>0.001474648466338644</v>
+        <v>0.00147464850811207</v>
       </c>
       <c r="Q6">
-        <v>0.002625029079342267</v>
+        <v>0.002625029124612757</v>
       </c>
       <c r="R6">
-        <v>0.002783555215603055</v>
+        <v>0.002783555263636035</v>
       </c>
       <c r="S6">
-        <v>0.02603759439767035</v>
+        <v>0.0260375944430164</v>
       </c>
       <c r="T6">
-        <v>7.184011083334469E-09</v>
+        <v>7.184011094969127E-09</v>
       </c>
       <c r="U6">
-        <v>2.439701013866654E-06</v>
+        <v>2.43970107437705E-06</v>
       </c>
       <c r="V6">
-        <v>0.1252221493510607</v>
+        <v>0.1252221497889044</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.000359964979678725</v>
+        <v>0.0003599649751534481</v>
       </c>
       <c r="C7">
-        <v>0.1997883413814195</v>
+        <v>0.1997883406860505</v>
       </c>
       <c r="D7">
-        <v>0.004170820667715831</v>
+        <v>0.004170820478480314</v>
       </c>
       <c r="E7">
-        <v>0.005506141181869257</v>
+        <v>0.005506140925250999</v>
       </c>
       <c r="F7">
-        <v>0.5958702096338013</v>
+        <v>0.595870169514834</v>
       </c>
       <c r="G7">
-        <v>0.09700822548062599</v>
+        <v>0.09700822530400222</v>
       </c>
       <c r="H7">
-        <v>2.889963525724809E-05</v>
+        <v>2.889963470626449E-05</v>
       </c>
       <c r="I7">
-        <v>5.329135755756759E-06</v>
+        <v>5.329135740062472E-06</v>
       </c>
       <c r="J7">
-        <v>0.004693518630709792</v>
+        <v>0.004693518516541706</v>
       </c>
       <c r="K7">
-        <v>0.09388791637336358</v>
+        <v>0.0938879121343807</v>
       </c>
       <c r="L7">
-        <v>0.008003541196365769</v>
+        <v>0.00800354118344589</v>
       </c>
       <c r="M7">
-        <v>0.002804712208586559</v>
+        <v>0.002804712333060283</v>
       </c>
       <c r="N7">
-        <v>0.0003328266562219829</v>
+        <v>0.0003328266706589827</v>
       </c>
       <c r="O7">
-        <v>8.491994804099747E-08</v>
+        <v>8.491994793262945E-08</v>
       </c>
       <c r="P7">
-        <v>0.000195698340595669</v>
+        <v>0.0001956983387889473</v>
       </c>
       <c r="Q7">
-        <v>0.000368327706038954</v>
+        <v>0.0003683277055326683</v>
       </c>
       <c r="R7">
-        <v>0.0003925118786428566</v>
+        <v>0.0003925118780944554</v>
       </c>
       <c r="S7">
-        <v>0.001821106834595419</v>
+        <v>0.001821106829888894</v>
       </c>
       <c r="T7">
-        <v>7.410506998827498E-10</v>
+        <v>7.410506970252411E-10</v>
       </c>
       <c r="U7">
-        <v>3.498555566593687E-07</v>
+        <v>3.498555535232165E-07</v>
       </c>
       <c r="V7">
-        <v>0.03610801708076116</v>
+        <v>0.03610801705091149</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>5.480135523086533E-06</v>
+        <v>5.480135476951483E-06</v>
       </c>
       <c r="C8">
-        <v>0.001982048484126086</v>
+        <v>0.001982048474343515</v>
       </c>
       <c r="D8">
-        <v>5.828442024468658E-05</v>
+        <v>5.828442038932329E-05</v>
       </c>
       <c r="E8">
-        <v>7.873824439108426E-05</v>
+        <v>7.873824461506898E-05</v>
       </c>
       <c r="F8">
-        <v>0.007509582965286341</v>
+        <v>0.007509583131549347</v>
       </c>
       <c r="G8">
-        <v>0.0009320823025052965</v>
+        <v>0.0009320822996406214</v>
       </c>
       <c r="H8">
-        <v>8.884151101676317E-07</v>
+        <v>8.884151093267184E-07</v>
       </c>
       <c r="I8">
-        <v>2.797941090109194E-07</v>
+        <v>2.797941086649821E-07</v>
       </c>
       <c r="J8">
-        <v>6.685017050503247E-05</v>
+        <v>6.685017080658066E-05</v>
       </c>
       <c r="K8">
-        <v>0.001941495802984467</v>
+        <v>0.001941495812498608</v>
       </c>
       <c r="L8">
-        <v>6.939295587887387E-05</v>
+        <v>6.93929559148852E-05</v>
       </c>
       <c r="M8">
-        <v>0.001163057717487899</v>
+        <v>0.001163057717518384</v>
       </c>
       <c r="N8">
-        <v>2.821426469294164E-06</v>
+        <v>2.821426289565125E-06</v>
       </c>
       <c r="O8">
-        <v>7.461584467301929E-10</v>
+        <v>7.461584412796443E-10</v>
       </c>
       <c r="P8">
-        <v>3.579815020608363E-06</v>
+        <v>3.579814988821596E-06</v>
       </c>
       <c r="Q8">
-        <v>4.860290956456082E-06</v>
+        <v>4.860290829395982E-06</v>
       </c>
       <c r="R8">
-        <v>5.207479527170968E-06</v>
+        <v>5.20747939744685E-06</v>
       </c>
       <c r="S8">
-        <v>2.943871035125767E-05</v>
+        <v>2.94387103355409E-05</v>
       </c>
       <c r="T8">
-        <v>1.842795370733105E-11</v>
+        <v>1.842795365515096E-11</v>
       </c>
       <c r="U8">
-        <v>4.824979565245302E-09</v>
+        <v>4.824979539184759E-09</v>
       </c>
       <c r="V8">
-        <v>0.0003328839579376022</v>
+        <v>0.0003328839567182463</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.0003996454509374388</v>
+        <v>0.0003996454201571289</v>
       </c>
       <c r="C9">
-        <v>0.1027050647357543</v>
+        <v>0.1027050595467444</v>
       </c>
       <c r="D9">
-        <v>0.004286998506534842</v>
+        <v>0.004286998192136098</v>
       </c>
       <c r="E9">
-        <v>0.005842353028427591</v>
+        <v>0.005842352608085035</v>
       </c>
       <c r="F9">
-        <v>0.4655333228500338</v>
+        <v>0.4655332783450137</v>
       </c>
       <c r="G9">
-        <v>0.05524775949446237</v>
+        <v>0.0552477580279798</v>
       </c>
       <c r="H9">
-        <v>3.002249984663815E-05</v>
+        <v>3.002249915105834E-05</v>
       </c>
       <c r="I9">
-        <v>6.209594079221409E-06</v>
+        <v>6.209593936783594E-06</v>
       </c>
       <c r="J9">
-        <v>0.003457612181247474</v>
+        <v>0.003457611789885353</v>
       </c>
       <c r="K9">
-        <v>0.1215189273327847</v>
+        <v>0.1215189211091926</v>
       </c>
       <c r="L9">
-        <v>0.003552069172644529</v>
+        <v>0.003552069209128016</v>
       </c>
       <c r="M9">
-        <v>0.01620458525557951</v>
+        <v>0.01620458511092767</v>
       </c>
       <c r="N9">
-        <v>0.000365627714700952</v>
+        <v>0.0003656276345476171</v>
       </c>
       <c r="O9">
-        <v>2.882744977378576E-08</v>
+        <v>2.882744671011223E-08</v>
       </c>
       <c r="P9">
-        <v>0.0002007348357605953</v>
+        <v>0.0002007348189138451</v>
       </c>
       <c r="Q9">
-        <v>0.0003817409167320839</v>
+        <v>0.0003817408563575384</v>
       </c>
       <c r="R9">
-        <v>0.0004114893082109503</v>
+        <v>0.0004114892467777251</v>
       </c>
       <c r="S9">
-        <v>0.001442428841327885</v>
+        <v>0.00144242883197733</v>
       </c>
       <c r="T9">
-        <v>5.981825498148378E-10</v>
+        <v>5.981825183135856E-10</v>
       </c>
       <c r="U9">
-        <v>2.642459026638748E-07</v>
+        <v>2.642458844588386E-07</v>
       </c>
       <c r="V9">
-        <v>0.02151824085544223</v>
+        <v>0.02151824024677171</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>6.587844640839222E-05</v>
+        <v>6.587844639412344E-05</v>
       </c>
       <c r="C10">
-        <v>0.0322652731147338</v>
+        <v>0.03226527306979118</v>
       </c>
       <c r="D10">
-        <v>0.0007087614353203767</v>
+        <v>0.0007087614455064625</v>
       </c>
       <c r="E10">
-        <v>0.000921643731447452</v>
+        <v>0.0009216437456866796</v>
       </c>
       <c r="F10">
-        <v>0.1103706064363951</v>
+        <v>0.1103706107949334</v>
       </c>
       <c r="G10">
-        <v>0.01450721628205066</v>
+        <v>0.0145072162695682</v>
       </c>
       <c r="H10">
-        <v>7.141955736496304E-06</v>
+        <v>7.141955735030549E-06</v>
       </c>
       <c r="I10">
-        <v>8.703218977660165E-07</v>
+        <v>8.703218949419701E-07</v>
       </c>
       <c r="J10">
-        <v>0.0008355252759248149</v>
+        <v>0.0008355252899902162</v>
       </c>
       <c r="K10">
-        <v>0.01855369281482199</v>
+        <v>0.01855369313684888</v>
       </c>
       <c r="L10">
-        <v>0.0007427594374015466</v>
+        <v>0.0007427594391407915</v>
       </c>
       <c r="M10">
-        <v>0.0005824040941083242</v>
+        <v>0.0005824041719927976</v>
       </c>
       <c r="N10">
-        <v>5.222554511541267E-05</v>
+        <v>5.222554287606224E-05</v>
       </c>
       <c r="O10">
-        <v>1.065055853747704E-08</v>
+        <v>1.065055853944202E-08</v>
       </c>
       <c r="P10">
-        <v>3.710223395009618E-05</v>
+        <v>3.710223390375581E-05</v>
       </c>
       <c r="Q10">
-        <v>5.67537221355579E-05</v>
+        <v>5.675372185444117E-05</v>
       </c>
       <c r="R10">
-        <v>5.978609597473088E-05</v>
+        <v>5.97860957015788E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003471087098672529</v>
+        <v>0.0003471087096998191</v>
       </c>
       <c r="T10">
-        <v>1.238456148816148E-10</v>
+        <v>1.238456154661833E-10</v>
       </c>
       <c r="U10">
-        <v>6.109780343503858E-08</v>
+        <v>6.10978034835512E-08</v>
       </c>
       <c r="V10">
-        <v>0.005244974622928276</v>
+        <v>0.005244974618405099</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.003740430252282517</v>
+        <v>-0.003740430301039841</v>
       </c>
       <c r="C11">
-        <v>-2.530512097036609</v>
+        <v>-2.530512098748814</v>
       </c>
       <c r="D11">
-        <v>-0.05248747635828295</v>
+        <v>-0.05248748076367275</v>
       </c>
       <c r="E11">
-        <v>-0.07230767787026117</v>
+        <v>-0.0723076838313219</v>
       </c>
       <c r="F11">
-        <v>-3.728158366094321</v>
+        <v>-3.728159521859181</v>
       </c>
       <c r="G11">
-        <v>-0.2532714943409088</v>
+        <v>-0.2532714943777207</v>
       </c>
       <c r="H11">
-        <v>-0.001126525664844231</v>
+        <v>-0.001126525674216707</v>
       </c>
       <c r="I11">
-        <v>-7.798932676417013E-05</v>
+        <v>-7.79893264294123E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2741017337289853</v>
+        <v>-0.2741017367698207</v>
       </c>
       <c r="K11">
-        <v>-1.554394296039742</v>
+        <v>-1.554394399579708</v>
       </c>
       <c r="L11">
-        <v>0.02807297452777592</v>
+        <v>0.02807297420491529</v>
       </c>
       <c r="M11">
-        <v>-0.1115216999497483</v>
+        <v>-0.1115216966311859</v>
       </c>
       <c r="N11">
-        <v>-0.001989767500267996</v>
+        <v>-0.001989766769093871</v>
       </c>
       <c r="O11">
-        <v>-4.811798703091573E-07</v>
+        <v>-4.811798682129982E-07</v>
       </c>
       <c r="P11">
-        <v>-0.002181331803172944</v>
+        <v>-0.0021813318109875</v>
       </c>
       <c r="Q11">
-        <v>-0.001932423234758897</v>
+        <v>-0.001932423137968899</v>
       </c>
       <c r="R11">
-        <v>-0.002063246807547949</v>
+        <v>-0.002063246711909442</v>
       </c>
       <c r="S11">
-        <v>-0.01559096287891332</v>
+        <v>-0.01559096294241201</v>
       </c>
       <c r="T11">
-        <v>-9.975524321847857E-09</v>
+        <v>-9.975524318331004E-09</v>
       </c>
       <c r="U11">
-        <v>-5.020430314429139E-06</v>
+        <v>-5.020430354633785E-06</v>
       </c>
       <c r="V11">
-        <v>-0.0832762899406935</v>
+        <v>-0.08327628911381617</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.0008344304387138308</v>
+        <v>-0.00083443045044779</v>
       </c>
       <c r="C12">
-        <v>-1.56845780706325</v>
+        <v>-1.568457800497571</v>
       </c>
       <c r="D12">
-        <v>-0.05340408399466307</v>
+        <v>-0.05340408713592518</v>
       </c>
       <c r="E12">
-        <v>-0.07073058912477066</v>
+        <v>-0.0707305934306677</v>
       </c>
       <c r="F12">
-        <v>-0.7365946770025473</v>
+        <v>-0.73659570041494</v>
       </c>
       <c r="G12">
-        <v>-0.004995962711692087</v>
+        <v>-0.004995960722944712</v>
       </c>
       <c r="H12">
-        <v>-0.00112705043936292</v>
+        <v>-0.001127050442556492</v>
       </c>
       <c r="I12">
-        <v>-5.335421299367627E-05</v>
+        <v>-5.335421231524115E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2749074167644766</v>
+        <v>-0.2749074186423248</v>
       </c>
       <c r="K12">
-        <v>-0.8832754636502357</v>
+        <v>-0.8832755476863201</v>
       </c>
       <c r="L12">
-        <v>0.03080356518022689</v>
+        <v>0.03080356510595036</v>
       </c>
       <c r="M12">
-        <v>0.7612624391362476</v>
+        <v>0.7612624284492842</v>
       </c>
       <c r="N12">
-        <v>-0.0008234412205046866</v>
+        <v>-0.0008234402762063474</v>
       </c>
       <c r="O12">
-        <v>4.852632248391927E-07</v>
+        <v>4.85263228664022E-07</v>
       </c>
       <c r="P12">
-        <v>-0.001283507827923278</v>
+        <v>-0.001283507810356105</v>
       </c>
       <c r="Q12">
-        <v>0.001989914279919903</v>
+        <v>0.00198991439874319</v>
       </c>
       <c r="R12">
-        <v>0.002207844433990563</v>
+        <v>0.002207844553106374</v>
       </c>
       <c r="S12">
-        <v>-0.03461015874262468</v>
+        <v>-0.03461015875246697</v>
       </c>
       <c r="T12">
-        <v>1.658791765240616E-09</v>
+        <v>1.65879168518803E-09</v>
       </c>
       <c r="U12">
-        <v>-3.450879522620159E-06</v>
+        <v>-3.450879530739192E-06</v>
       </c>
       <c r="V12">
-        <v>0.02879202074184687</v>
+        <v>0.02879202195352965</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1294,67 +1294,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>-0.0002440663768122949</v>
+        <v>-0.0002440663764566973</v>
       </c>
       <c r="C13">
-        <v>-0.02786854005417455</v>
+        <v>-0.0278685399413884</v>
       </c>
       <c r="D13">
-        <v>-0.01132632932478293</v>
+        <v>-0.011326329369533</v>
       </c>
       <c r="E13">
-        <v>-0.01396495726271323</v>
+        <v>-0.01396495732535252</v>
       </c>
       <c r="F13">
-        <v>-0.06006592118983536</v>
+        <v>-0.06006593825439959</v>
       </c>
       <c r="G13">
-        <v>-0.005615097246546249</v>
+        <v>-0.00561509721564141</v>
       </c>
       <c r="H13">
-        <v>-1.524922172702871E-05</v>
+        <v>-1.52492217961157E-05</v>
       </c>
       <c r="I13">
-        <v>-1.428982054220767E-05</v>
+        <v>-1.428982053121053E-05</v>
       </c>
       <c r="J13">
-        <v>-0.01796024999942395</v>
+        <v>-0.01796025005861106</v>
       </c>
       <c r="K13">
-        <v>-0.2711232404785379</v>
+        <v>-0.2711232418208717</v>
       </c>
       <c r="L13">
-        <v>0.0003505642123051303</v>
+        <v>0.0003505642063461632</v>
       </c>
       <c r="M13">
-        <v>-0.001395258391340452</v>
+        <v>-0.001395258426959381</v>
       </c>
       <c r="N13">
-        <v>-0.000227585715584609</v>
+        <v>-0.0002275856981083724</v>
       </c>
       <c r="O13">
-        <v>-1.985967835973042E-07</v>
+        <v>-1.985967835309758E-07</v>
       </c>
       <c r="P13">
-        <v>-9.301107035410017E-05</v>
+        <v>-9.301106998189857E-05</v>
       </c>
       <c r="Q13">
-        <v>-0.0005027995653726553</v>
+        <v>-0.0005027995629519424</v>
       </c>
       <c r="R13">
-        <v>-0.0005126699043537652</v>
+        <v>-0.0005126699019744253</v>
       </c>
       <c r="S13">
-        <v>-0.0005749581967714682</v>
+        <v>-0.0005749581970399847</v>
       </c>
       <c r="T13">
-        <v>-2.28522195588513E-10</v>
+        <v>-2.285221954852003E-10</v>
       </c>
       <c r="U13">
-        <v>-2.075856513454921E-07</v>
+        <v>-2.075856515070726E-07</v>
       </c>
       <c r="V13">
-        <v>-0.00166948162398149</v>
+        <v>-0.001669481602213815</v>
       </c>
     </row>
   </sheetData>

--- a/results/LCIA/LCIA_results_uniquie.xlsx
+++ b/results/LCIA/LCIA_results_uniquie.xlsx
@@ -112,7 +112,7 @@
     <t>'treatment of hazardous waste, hazardous waste incineration, with energy recovery' (kilogram, CH, None)</t>
   </si>
   <si>
-    <t>'treatment of waste packaging paper, municipal incineration' (kilogram, CH, None)</t>
+    <t>'waste packaging paper, Recycled Content cut-off' (kilogram, GLO, None)</t>
   </si>
 </sst>
 </file>
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.01314840731963411</v>
+        <v>0.01175380524645557</v>
       </c>
       <c r="C2">
-        <v>3.512157272114307</v>
+        <v>2.890754359829077</v>
       </c>
       <c r="D2">
-        <v>0.1443032290059204</v>
+        <v>0.3519576129531484</v>
       </c>
       <c r="E2">
-        <v>0.3971802392165218</v>
+        <v>0.5058795151842596</v>
       </c>
       <c r="F2">
-        <v>17.48812535518012</v>
+        <v>17.87714506305164</v>
       </c>
       <c r="G2">
-        <v>0.9955181317332106</v>
+        <v>0.7898392761868713</v>
       </c>
       <c r="H2">
-        <v>0.001273073936949482</v>
+        <v>0.001113107715015751</v>
       </c>
       <c r="I2">
-        <v>0.0001792159547171682</v>
+        <v>0.0002528989169416089</v>
       </c>
       <c r="J2">
-        <v>0.3714414040259378</v>
+        <v>0.3292731400938236</v>
       </c>
       <c r="K2">
-        <v>4.190863915763699</v>
+        <v>6.166319493447451</v>
       </c>
       <c r="L2">
-        <v>-0.01630800189430088</v>
+        <v>0.1503577992305188</v>
       </c>
       <c r="M2">
-        <v>0.4930867230903957</v>
+        <v>0.2755208103753126</v>
       </c>
       <c r="N2">
-        <v>0.05847859024841448</v>
+        <v>0.08274950817750443</v>
       </c>
       <c r="O2">
-        <v>1.217297210177121E-06</v>
+        <v>1.195229738102126E-06</v>
       </c>
       <c r="P2">
-        <v>0.006547867314610588</v>
+        <v>0.005057101304319232</v>
       </c>
       <c r="Q2">
-        <v>0.01084992336096209</v>
+        <v>0.00921234300220251</v>
       </c>
       <c r="R2">
-        <v>0.01123060100198374</v>
+        <v>0.009482030839227091</v>
       </c>
       <c r="S2">
-        <v>0.02739506027421093</v>
+        <v>0.02646398153172093</v>
       </c>
       <c r="T2">
-        <v>1.964003181041297E-08</v>
+        <v>1.550171929190262E-08</v>
       </c>
       <c r="U2">
-        <v>9.634236856383275E-06</v>
+        <v>8.42872462557278E-06</v>
       </c>
       <c r="V2">
-        <v>0.3057806298709115</v>
+        <v>0.253473993082853</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.005881535866989482</v>
+        <v>0.008129370943506383</v>
       </c>
       <c r="C3">
-        <v>1.620435572225736</v>
+        <v>2.265880882288241</v>
       </c>
       <c r="D3">
-        <v>0.1994527668608046</v>
+        <v>0.1796235063274381</v>
       </c>
       <c r="E3">
-        <v>0.2564715962987656</v>
+        <v>0.2365080251748743</v>
       </c>
       <c r="F3">
-        <v>12.38301372822447</v>
+        <v>8.818109854123744</v>
       </c>
       <c r="G3">
-        <v>0.4775876027683795</v>
+        <v>0.6072375689433844</v>
       </c>
       <c r="H3">
-        <v>0.001152285908942057</v>
+        <v>0.001915808701703563</v>
       </c>
       <c r="I3">
-        <v>0.0001457040668994422</v>
+        <v>0.0002082153782178546</v>
       </c>
       <c r="J3">
-        <v>0.3568364702942792</v>
+        <v>0.4312754823363282</v>
       </c>
       <c r="K3">
-        <v>3.22487062021334</v>
+        <v>4.10740475581135</v>
       </c>
       <c r="L3">
-        <v>0.497955987061343</v>
+        <v>1.190368313389721</v>
       </c>
       <c r="M3">
-        <v>0.3041030806839095</v>
+        <v>0.07253609718367303</v>
       </c>
       <c r="N3">
-        <v>0.003897160966845339</v>
+        <v>0.1359272101707848</v>
       </c>
       <c r="O3">
-        <v>8.87444591954842E-07</v>
+        <v>1.06382940157619E-06</v>
       </c>
       <c r="P3">
-        <v>0.003736434220543955</v>
+        <v>0.003317429327205261</v>
       </c>
       <c r="Q3">
-        <v>0.003513198043930963</v>
+        <v>0.004422417003668732</v>
       </c>
       <c r="R3">
-        <v>0.00368871677415706</v>
+        <v>0.004567556310912183</v>
       </c>
       <c r="S3">
-        <v>0.1052738310532153</v>
+        <v>0.120006413656555</v>
       </c>
       <c r="T3">
-        <v>1.003580849119634E-08</v>
+        <v>1.083474881223227E-08</v>
       </c>
       <c r="U3">
-        <v>6.013793707947649E-06</v>
+        <v>6.836226349328591E-06</v>
       </c>
       <c r="V3">
-        <v>0.1323508417901402</v>
+        <v>0.1609293318169306</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>7.075583669482153E-06</v>
+        <v>8.495885427795242E-06</v>
       </c>
       <c r="C4">
-        <v>0.002267682638818421</v>
+        <v>0.002608180336051342</v>
       </c>
       <c r="D4">
-        <v>0.0001775693600836384</v>
+        <v>0.0001124776147915764</v>
       </c>
       <c r="E4">
-        <v>0.0002258065544977913</v>
+        <v>0.000149896404571002</v>
       </c>
       <c r="F4">
-        <v>0.009214410194348514</v>
+        <v>0.00553575517240965</v>
       </c>
       <c r="G4">
-        <v>0.0006563352813822118</v>
+        <v>0.0006726734160141826</v>
       </c>
       <c r="H4">
-        <v>4.59046084831254E-05</v>
+        <v>4.673999892672767E-05</v>
       </c>
       <c r="I4">
-        <v>6.327189723516712E-06</v>
+        <v>6.403698787095511E-06</v>
       </c>
       <c r="J4">
-        <v>0.0002510170494482985</v>
+        <v>0.0005457582520904061</v>
       </c>
       <c r="K4">
-        <v>0.002514161773921247</v>
+        <v>0.003018374949786152</v>
       </c>
       <c r="L4">
-        <v>0.0005445424850787999</v>
+        <v>0.001323482354637457</v>
       </c>
       <c r="M4">
-        <v>0.000304245603813654</v>
+        <v>7.170882836988848E-05</v>
       </c>
       <c r="N4">
-        <v>1.740177487610893E-05</v>
+        <v>6.976644149336728E-05</v>
       </c>
       <c r="O4">
-        <v>1.378191603403226E-09</v>
+        <v>1.278067873837511E-09</v>
       </c>
       <c r="P4">
-        <v>4.239919571740036E-06</v>
+        <v>3.521594547465457E-06</v>
       </c>
       <c r="Q4">
-        <v>4.706500732730972E-06</v>
+        <v>4.721177061878261E-06</v>
       </c>
       <c r="R4">
-        <v>4.981965662565343E-06</v>
+        <v>4.894953267074086E-06</v>
       </c>
       <c r="S4">
-        <v>9.127238798797377E-05</v>
+        <v>0.000105797763263886</v>
       </c>
       <c r="T4">
-        <v>4.219606306548743E-11</v>
+        <v>4.184198485227963E-11</v>
       </c>
       <c r="U4">
-        <v>6.388066384958043E-09</v>
+        <v>7.383799832298816E-09</v>
       </c>
       <c r="V4">
-        <v>0.0001913999608595052</v>
+        <v>0.0001580186576278235</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.0007510464720470623</v>
+        <v>0.0005473479012665486</v>
       </c>
       <c r="C5">
-        <v>0.1597931373652305</v>
+        <v>0.111409527219216</v>
       </c>
       <c r="D5">
-        <v>0.008804676619173149</v>
+        <v>0.02532106357733819</v>
       </c>
       <c r="E5">
-        <v>0.03175372361533831</v>
+        <v>0.03746388267783222</v>
       </c>
       <c r="F5">
-        <v>0.9702857344174958</v>
+        <v>0.9136830940678209</v>
       </c>
       <c r="G5">
-        <v>0.04376007742028272</v>
+        <v>0.03223830564821104</v>
       </c>
       <c r="H5">
-        <v>4.959149668645901E-05</v>
+        <v>6.307477871648142E-05</v>
       </c>
       <c r="I5">
-        <v>3.988288547009223E-06</v>
+        <v>3.560176019283788E-06</v>
       </c>
       <c r="J5">
-        <v>0.02538863459472854</v>
+        <v>0.01770091730354003</v>
       </c>
       <c r="K5">
-        <v>0.2639290484074447</v>
+        <v>0.4456233302788005</v>
       </c>
       <c r="L5">
-        <v>0.001890647954633818</v>
+        <v>0.004682702895017933</v>
       </c>
       <c r="M5">
-        <v>0.00344936223053064</v>
+        <v>0.002402292639154908</v>
       </c>
       <c r="N5">
-        <v>0.004737481037727519</v>
+        <v>0.003659590486393369</v>
       </c>
       <c r="O5">
-        <v>4.314693641154686E-08</v>
+        <v>3.057861373652564E-08</v>
       </c>
       <c r="P5">
-        <v>0.0003387897212970972</v>
+        <v>0.0002361993788292964</v>
       </c>
       <c r="Q5">
-        <v>0.0005243994404171586</v>
+        <v>0.0003303129896371491</v>
       </c>
       <c r="R5">
-        <v>0.0005393667914509341</v>
+        <v>0.0003394339725966874</v>
       </c>
       <c r="S5">
-        <v>0.001085099706871872</v>
+        <v>0.00108936984110531</v>
       </c>
       <c r="T5">
-        <v>7.607061746981665E-10</v>
+        <v>5.673200568662777E-10</v>
       </c>
       <c r="U5">
-        <v>5.085436328308912E-07</v>
+        <v>4.149488740902847E-07</v>
       </c>
       <c r="V5">
-        <v>0.01215879520663204</v>
+        <v>0.009560071029235964</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002876687807696459</v>
+        <v>0.002793515309214348</v>
       </c>
       <c r="C6">
-        <v>1.27605177562593</v>
+        <v>1.144075598335055</v>
       </c>
       <c r="D6">
-        <v>0.03071327771940949</v>
+        <v>0.03284467467873559</v>
       </c>
       <c r="E6">
-        <v>0.03846176417107288</v>
+        <v>0.04060540155391732</v>
       </c>
       <c r="F6">
-        <v>3.892591318836664</v>
+        <v>3.218580668760483</v>
       </c>
       <c r="G6">
-        <v>0.3736933941144197</v>
+        <v>0.3215819571214263</v>
       </c>
       <c r="H6">
-        <v>0.0004287453281736821</v>
+        <v>0.0002457757746095421</v>
       </c>
       <c r="I6">
-        <v>0.0001834923740724462</v>
+        <v>0.0002182801540031446</v>
       </c>
       <c r="J6">
-        <v>0.030951849065865</v>
+        <v>0.04584409023017953</v>
       </c>
       <c r="K6">
-        <v>0.722029112145153</v>
+        <v>0.656013413648841</v>
       </c>
       <c r="L6">
-        <v>0.02922346788467662</v>
+        <v>0.07452808733982014</v>
       </c>
       <c r="M6">
-        <v>0.2575095339074511</v>
+        <v>0.1201564229337869</v>
       </c>
       <c r="N6">
-        <v>0.003099180923033048</v>
+        <v>0.01855391617186008</v>
       </c>
       <c r="O6">
-        <v>1.316035721821226E-06</v>
+        <v>1.295096184024007E-06</v>
       </c>
       <c r="P6">
-        <v>0.00147464850811207</v>
+        <v>0.001025851379675298</v>
       </c>
       <c r="Q6">
-        <v>0.002625029124612757</v>
+        <v>0.002577235162158029</v>
       </c>
       <c r="R6">
-        <v>0.002783555263636035</v>
+        <v>0.002708424403247141</v>
       </c>
       <c r="S6">
-        <v>0.0260375944430164</v>
+        <v>0.02382786534654507</v>
       </c>
       <c r="T6">
-        <v>7.184011094969127E-09</v>
+        <v>5.440775308717103E-09</v>
       </c>
       <c r="U6">
-        <v>2.43970107437705E-06</v>
+        <v>2.064801255646518E-06</v>
       </c>
       <c r="V6">
-        <v>0.1252221497889044</v>
+        <v>0.1124901491261296</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.0003599649751534481</v>
+        <v>0.0005781492373447634</v>
       </c>
       <c r="C7">
-        <v>0.1997883406860505</v>
+        <v>0.2026360648972184</v>
       </c>
       <c r="D7">
-        <v>0.004170820478480314</v>
+        <v>0.006015986605350543</v>
       </c>
       <c r="E7">
-        <v>0.005506140925250999</v>
+        <v>0.00791560391547335</v>
       </c>
       <c r="F7">
-        <v>0.595870169514834</v>
+        <v>0.5583824957661546</v>
       </c>
       <c r="G7">
-        <v>0.09700822530400222</v>
+        <v>0.09515669652260776</v>
       </c>
       <c r="H7">
-        <v>2.889963470626449E-05</v>
+        <v>5.070391725573388E-05</v>
       </c>
       <c r="I7">
-        <v>5.329135740062472E-06</v>
+        <v>6.930443833891851E-06</v>
       </c>
       <c r="J7">
-        <v>0.004693518516541706</v>
+        <v>0.009045009509272063</v>
       </c>
       <c r="K7">
-        <v>0.0938879121343807</v>
+        <v>0.133127246910582</v>
       </c>
       <c r="L7">
-        <v>0.00800354118344589</v>
+        <v>0.01183923018738128</v>
       </c>
       <c r="M7">
-        <v>0.002804712333060283</v>
+        <v>0.006223448971403967</v>
       </c>
       <c r="N7">
-        <v>0.0003328266706589827</v>
+        <v>0.004885585103008306</v>
       </c>
       <c r="O7">
-        <v>8.491994793262945E-08</v>
+        <v>6.10922411533003E-08</v>
       </c>
       <c r="P7">
-        <v>0.0001956983387889473</v>
+        <v>0.0002646728660051978</v>
       </c>
       <c r="Q7">
-        <v>0.0003683277055326683</v>
+        <v>0.0004351791442641645</v>
       </c>
       <c r="R7">
-        <v>0.0003925118780944554</v>
+        <v>0.000462480966999671</v>
       </c>
       <c r="S7">
-        <v>0.001821106829888894</v>
+        <v>0.00227153747163119</v>
       </c>
       <c r="T7">
-        <v>7.410506970252411E-10</v>
+        <v>8.503408547845072E-10</v>
       </c>
       <c r="U7">
-        <v>3.498555535232165E-07</v>
+        <v>4.20299494673553E-07</v>
       </c>
       <c r="V7">
-        <v>0.03610801705091149</v>
+        <v>0.03483694569860749</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>5.480135476951483E-06</v>
+        <v>6.700317199288678E-06</v>
       </c>
       <c r="C8">
-        <v>0.001982048474343515</v>
+        <v>0.002030465233626986</v>
       </c>
       <c r="D8">
-        <v>5.828442038932329E-05</v>
+        <v>6.74245324402588E-05</v>
       </c>
       <c r="E8">
-        <v>7.873824461506898E-05</v>
+        <v>8.951436087316048E-05</v>
       </c>
       <c r="F8">
-        <v>0.007509583131549347</v>
+        <v>0.006561235837257874</v>
       </c>
       <c r="G8">
-        <v>0.0009320822996406214</v>
+        <v>0.0009081999594055464</v>
       </c>
       <c r="H8">
-        <v>8.884151093267184E-07</v>
+        <v>7.407663466320073E-07</v>
       </c>
       <c r="I8">
-        <v>2.797941086649821E-07</v>
+        <v>2.789308720565773E-07</v>
       </c>
       <c r="J8">
-        <v>6.685017080658066E-05</v>
+        <v>8.98661809917967E-05</v>
       </c>
       <c r="K8">
-        <v>0.001941495812498608</v>
+        <v>0.001906933168666773</v>
       </c>
       <c r="L8">
-        <v>6.93929559148852E-05</v>
+        <v>0.0001549177896083973</v>
       </c>
       <c r="M8">
-        <v>0.001163057717518384</v>
+        <v>0.0007143758248559282</v>
       </c>
       <c r="N8">
-        <v>2.821426289565125E-06</v>
+        <v>0.0006225583473966445</v>
       </c>
       <c r="O8">
-        <v>7.461584412796443E-10</v>
+        <v>8.261620200786305E-10</v>
       </c>
       <c r="P8">
-        <v>3.579814988821596E-06</v>
+        <v>3.365580175178098E-06</v>
       </c>
       <c r="Q8">
-        <v>4.860290829395982E-06</v>
+        <v>5.301223696096857E-06</v>
       </c>
       <c r="R8">
-        <v>5.20747939744685E-06</v>
+        <v>5.624321385709384E-06</v>
       </c>
       <c r="S8">
-        <v>2.94387103355409E-05</v>
+        <v>3.093410029026004E-05</v>
       </c>
       <c r="T8">
-        <v>1.842795365515096E-11</v>
+        <v>1.479547903983331E-11</v>
       </c>
       <c r="U8">
-        <v>4.824979539184759E-09</v>
+        <v>4.807741483866565E-09</v>
       </c>
       <c r="V8">
-        <v>0.0003328839567182463</v>
+        <v>0.0004624424333687105</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.0003996454201571289</v>
+        <v>0.0004597078033071241</v>
       </c>
       <c r="C9">
-        <v>0.1027050595467444</v>
+        <v>0.1070782899728079</v>
       </c>
       <c r="D9">
-        <v>0.004286998192136098</v>
+        <v>0.004164259962342492</v>
       </c>
       <c r="E9">
-        <v>0.005842352608085035</v>
+        <v>0.005632027573172251</v>
       </c>
       <c r="F9">
-        <v>0.4655332783450137</v>
+        <v>0.3833743507042124</v>
       </c>
       <c r="G9">
-        <v>0.0552477580279798</v>
+        <v>0.05521716779912315</v>
       </c>
       <c r="H9">
-        <v>3.002249915105834E-05</v>
+        <v>2.691376276701745E-05</v>
       </c>
       <c r="I9">
-        <v>6.209593936783594E-06</v>
+        <v>6.304627252534172E-06</v>
       </c>
       <c r="J9">
-        <v>0.003457611789885353</v>
+        <v>0.005636694702556532</v>
       </c>
       <c r="K9">
-        <v>0.1215189211091926</v>
+        <v>0.1083376141038868</v>
       </c>
       <c r="L9">
-        <v>0.003552069209128016</v>
+        <v>0.007139214961236662</v>
       </c>
       <c r="M9">
-        <v>0.01620458511092767</v>
+        <v>0.0100265977485204</v>
       </c>
       <c r="N9">
-        <v>0.0003656276345476171</v>
+        <v>0.007699558117500917</v>
       </c>
       <c r="O9">
-        <v>2.882744671011223E-08</v>
+        <v>3.056578875681478E-08</v>
       </c>
       <c r="P9">
-        <v>0.0002007348189138451</v>
+        <v>0.0001970293954531228</v>
       </c>
       <c r="Q9">
-        <v>0.0003817408563575384</v>
+        <v>0.0004027196331675208</v>
       </c>
       <c r="R9">
-        <v>0.0004114892467777251</v>
+        <v>0.0004317525064688408</v>
       </c>
       <c r="S9">
-        <v>0.00144242883197733</v>
+        <v>0.001529438400832229</v>
       </c>
       <c r="T9">
-        <v>5.981825183135856E-10</v>
+        <v>5.678734700384537E-10</v>
       </c>
       <c r="U9">
-        <v>2.642458844588386E-07</v>
+        <v>2.704242711537164E-07</v>
       </c>
       <c r="V9">
-        <v>0.02151824024677171</v>
+        <v>0.02286846110763362</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>6.587844639412344E-05</v>
+        <v>9.422588025827082E-05</v>
       </c>
       <c r="C10">
-        <v>0.03226527306979118</v>
+        <v>0.03243189525654241</v>
       </c>
       <c r="D10">
-        <v>0.0007087614455064625</v>
+        <v>0.00110678597278151</v>
       </c>
       <c r="E10">
-        <v>0.0009216437456866796</v>
+        <v>0.001427522944354499</v>
       </c>
       <c r="F10">
-        <v>0.1103706107949334</v>
+        <v>0.1025072542053238</v>
       </c>
       <c r="G10">
-        <v>0.0145072162695682</v>
+        <v>0.01432989093212936</v>
       </c>
       <c r="H10">
-        <v>7.141955735030549E-06</v>
+        <v>9.109992941519333E-06</v>
       </c>
       <c r="I10">
-        <v>8.703218949419701E-07</v>
+        <v>1.073992526776377E-06</v>
       </c>
       <c r="J10">
-        <v>0.0008355252899902162</v>
+        <v>0.001538819944837814</v>
       </c>
       <c r="K10">
-        <v>0.01855369313684888</v>
+        <v>0.02373957217307529</v>
       </c>
       <c r="L10">
-        <v>0.0007427594391407915</v>
+        <v>0.002051208596204376</v>
       </c>
       <c r="M10">
-        <v>0.0005824041719927976</v>
+        <v>0.0007037847757842225</v>
       </c>
       <c r="N10">
-        <v>5.222554287606224E-05</v>
+        <v>0.0005549222397169376</v>
       </c>
       <c r="O10">
-        <v>1.065055853944202E-08</v>
+        <v>8.269592854697945E-09</v>
       </c>
       <c r="P10">
-        <v>3.710223390375581E-05</v>
+        <v>4.537142440186944E-05</v>
       </c>
       <c r="Q10">
-        <v>5.675372185444117E-05</v>
+        <v>7.160943050376832E-05</v>
       </c>
       <c r="R10">
-        <v>5.97860957015788E-05</v>
+        <v>7.670196142258992E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003471087096998191</v>
+        <v>0.0003679586707660444</v>
       </c>
       <c r="T10">
-        <v>1.238456154661833E-10</v>
+        <v>1.351402123055962E-10</v>
       </c>
       <c r="U10">
-        <v>6.10978034835512E-08</v>
+        <v>7.003126380146573E-08</v>
       </c>
       <c r="V10">
-        <v>0.005244974618405099</v>
+        <v>0.005007019323534282</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.003740430301039841</v>
+        <v>-0.002044196336102993</v>
       </c>
       <c r="C11">
-        <v>-2.530512098748814</v>
+        <v>-2.481352491919722</v>
       </c>
       <c r="D11">
-        <v>-0.05248748076367275</v>
+        <v>-0.04186986511484831</v>
       </c>
       <c r="E11">
-        <v>-0.0723076838313219</v>
+        <v>-0.05713111270606088</v>
       </c>
       <c r="F11">
-        <v>-3.728159521859181</v>
+        <v>-2.287034816592695</v>
       </c>
       <c r="G11">
-        <v>-0.2532714943777207</v>
+        <v>-0.248013479150782</v>
       </c>
       <c r="H11">
-        <v>-0.001126525674216707</v>
+        <v>-0.0006770049302374156</v>
       </c>
       <c r="I11">
-        <v>-7.79893264294123E-05</v>
+        <v>-5.377657237608022E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2741017367698207</v>
+        <v>-0.2721480264434417</v>
       </c>
       <c r="K11">
-        <v>-1.554394399579708</v>
+        <v>-0.981885516446131</v>
       </c>
       <c r="L11">
-        <v>0.02807297420491529</v>
+        <v>-0.03679645541239178</v>
       </c>
       <c r="M11">
-        <v>-0.1115216966311859</v>
+        <v>-0.009861757016032147</v>
       </c>
       <c r="N11">
-        <v>-0.001989766769093871</v>
+        <v>-0.03895400138602854</v>
       </c>
       <c r="O11">
-        <v>-4.811798682129982E-07</v>
+        <v>-6.581680722201237E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0021813318109875</v>
+        <v>-0.0009343549282810577</v>
       </c>
       <c r="Q11">
-        <v>-0.001932423137968899</v>
+        <v>-0.00183773645224643</v>
       </c>
       <c r="R11">
-        <v>-0.002063246711909442</v>
+        <v>-0.001970886410524037</v>
       </c>
       <c r="S11">
-        <v>-0.01559096294241201</v>
+        <v>-0.008419273713206941</v>
       </c>
       <c r="T11">
-        <v>-9.975524318331004E-09</v>
+        <v>-8.238229915808357E-09</v>
       </c>
       <c r="U11">
-        <v>-5.020430354633785E-06</v>
+        <v>-4.038304850824226E-06</v>
       </c>
       <c r="V11">
-        <v>-0.08327628911381617</v>
+        <v>-0.1021460397453685</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.00083443045044779</v>
+        <v>-0.002044196332509781</v>
       </c>
       <c r="C12">
-        <v>-1.568457800497571</v>
+        <v>-2.481352491607859</v>
       </c>
       <c r="D12">
-        <v>-0.05340408713592518</v>
+        <v>-0.04186986487992241</v>
       </c>
       <c r="E12">
-        <v>-0.0707305934306677</v>
+        <v>-0.05713111240656681</v>
       </c>
       <c r="F12">
-        <v>-0.73659570041494</v>
+        <v>-2.287034796545412</v>
       </c>
       <c r="G12">
-        <v>-0.004995960722944712</v>
+        <v>-0.2480134791209921</v>
       </c>
       <c r="H12">
-        <v>-0.001127050442556492</v>
+        <v>-0.0006770049299073941</v>
       </c>
       <c r="I12">
-        <v>-5.335421231524115E-05</v>
+        <v>-5.377657236058737E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2749074186423248</v>
+        <v>-0.2721480263172309</v>
       </c>
       <c r="K12">
-        <v>-0.8832755476863201</v>
+        <v>-0.981885513158443</v>
       </c>
       <c r="L12">
-        <v>0.03080356510595036</v>
+        <v>-0.03679645538147767</v>
       </c>
       <c r="M12">
-        <v>0.7612624284492842</v>
+        <v>-0.009861757242639888</v>
       </c>
       <c r="N12">
-        <v>-0.0008234402762063474</v>
+        <v>-0.03895400134756154</v>
       </c>
       <c r="O12">
-        <v>4.85263228664022E-07</v>
+        <v>-6.581680721230569E-07</v>
       </c>
       <c r="P12">
-        <v>-0.001283507810356105</v>
+        <v>-0.0009343549268632004</v>
       </c>
       <c r="Q12">
-        <v>0.00198991439874319</v>
+        <v>-0.001837736450848988</v>
       </c>
       <c r="R12">
-        <v>0.002207844553106374</v>
+        <v>-0.001970886409167742</v>
       </c>
       <c r="S12">
-        <v>-0.03461015875246697</v>
+        <v>-0.008419273711035284</v>
       </c>
       <c r="T12">
-        <v>1.65879168518803E-09</v>
+        <v>-8.238229915365718E-09</v>
       </c>
       <c r="U12">
-        <v>-3.450879530739192E-06</v>
+        <v>-4.038304848469093E-06</v>
       </c>
       <c r="V12">
-        <v>0.02879202195352965</v>
+        <v>-0.1021460397372079</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1294,67 +1294,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>-0.0002440663764566973</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.0278685399413884</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-0.011326329369533</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-0.01396495732535252</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-0.06006593825439959</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>-0.00561509721564141</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-1.52492217961157E-05</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>-1.428982053121053E-05</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>-0.01796025005861106</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.2711232418208717</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0003505642063461632</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.001395258426959381</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-0.0002275856981083724</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>-1.985967835309758E-07</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>-9.301106998189857E-05</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-0.0005027995629519424</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>-0.0005126699019744253</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>-0.0005749581970399847</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>-2.285221954852003E-10</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>-2.075856515070726E-07</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>-0.001669481602213815</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/LCIA/LCIA_results_uniquie.xlsx
+++ b/results/LCIA/LCIA_results_uniquie.xlsx
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.01175380524645557</v>
+        <v>0.01229125783546574</v>
       </c>
       <c r="C2">
-        <v>2.890754359829077</v>
+        <v>3.052535353872697</v>
       </c>
       <c r="D2">
-        <v>0.3519576129531484</v>
+        <v>0.3675763307360715</v>
       </c>
       <c r="E2">
-        <v>0.5058795151842596</v>
+        <v>0.5248603266804406</v>
       </c>
       <c r="F2">
-        <v>17.87714506305164</v>
+        <v>18.94531038849643</v>
       </c>
       <c r="G2">
-        <v>0.7898392761868713</v>
+        <v>0.8253371367419875</v>
       </c>
       <c r="H2">
-        <v>0.001113107715015751</v>
+        <v>0.001161068606630435</v>
       </c>
       <c r="I2">
-        <v>0.0002528989169416089</v>
+        <v>0.0003345961324177472</v>
       </c>
       <c r="J2">
-        <v>0.3292731400938236</v>
+        <v>0.3361697488287564</v>
       </c>
       <c r="K2">
-        <v>6.166319493447451</v>
+        <v>6.374751821673151</v>
       </c>
       <c r="L2">
-        <v>0.1503577992305188</v>
+        <v>0.3181080999019055</v>
       </c>
       <c r="M2">
-        <v>0.2755208103753126</v>
+        <v>0.2955669676667603</v>
       </c>
       <c r="N2">
-        <v>0.08274950817750443</v>
+        <v>0.08472182039253612</v>
       </c>
       <c r="O2">
-        <v>1.195229738102126E-06</v>
+        <v>1.510521313830155E-06</v>
       </c>
       <c r="P2">
-        <v>0.005057101304319232</v>
+        <v>0.005235490183266196</v>
       </c>
       <c r="Q2">
-        <v>0.00921234300220251</v>
+        <v>0.009489413270699467</v>
       </c>
       <c r="R2">
-        <v>0.009482030839227091</v>
+        <v>0.009773054826823828</v>
       </c>
       <c r="S2">
-        <v>0.02646398153172093</v>
+        <v>0.03282319916465733</v>
       </c>
       <c r="T2">
-        <v>1.550171929190262E-08</v>
+        <v>1.63415136964019E-08</v>
       </c>
       <c r="U2">
-        <v>8.42872462557278E-06</v>
+        <v>8.777329980173061E-06</v>
       </c>
       <c r="V2">
-        <v>0.253473993082853</v>
+        <v>0.2653962837710447</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.008129370943506383</v>
+        <v>0.008129370896680477</v>
       </c>
       <c r="C3">
-        <v>2.265880882288241</v>
+        <v>2.265880885977579</v>
       </c>
       <c r="D3">
-        <v>0.1796235063274381</v>
+        <v>0.1796235022741767</v>
       </c>
       <c r="E3">
-        <v>0.2365080251748743</v>
+        <v>0.2365080200276415</v>
       </c>
       <c r="F3">
-        <v>8.818109854123744</v>
+        <v>8.818109510714288</v>
       </c>
       <c r="G3">
-        <v>0.6072375689433844</v>
+        <v>0.607237570357634</v>
       </c>
       <c r="H3">
-        <v>0.001915808701703563</v>
+        <v>0.001915808697341648</v>
       </c>
       <c r="I3">
-        <v>0.0002082153782178546</v>
+        <v>0.0002082153782275133</v>
       </c>
       <c r="J3">
-        <v>0.4312754823363282</v>
+        <v>0.4312754870458587</v>
       </c>
       <c r="K3">
-        <v>4.10740475581135</v>
+        <v>4.107404693250444</v>
       </c>
       <c r="L3">
-        <v>1.190368313389721</v>
+        <v>1.190368314586822</v>
       </c>
       <c r="M3">
-        <v>0.07253609718367303</v>
+        <v>0.07253609386996789</v>
       </c>
       <c r="N3">
-        <v>0.1359272101707848</v>
+        <v>0.1359272110239872</v>
       </c>
       <c r="O3">
-        <v>1.06382940157619E-06</v>
+        <v>1.063829401897339E-06</v>
       </c>
       <c r="P3">
-        <v>0.003317429327205261</v>
+        <v>0.003317429316012532</v>
       </c>
       <c r="Q3">
-        <v>0.004422417003668732</v>
+        <v>0.004422416997676142</v>
       </c>
       <c r="R3">
-        <v>0.004567556310912183</v>
+        <v>0.004567556308621614</v>
       </c>
       <c r="S3">
-        <v>0.120006413656555</v>
+        <v>0.120006413783038</v>
       </c>
       <c r="T3">
-        <v>1.083474881223227E-08</v>
+        <v>1.083474877274201E-08</v>
       </c>
       <c r="U3">
-        <v>6.836226349328591E-06</v>
+        <v>6.83622634738497E-06</v>
       </c>
       <c r="V3">
-        <v>0.1609293318169306</v>
+        <v>0.1609293325034777</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>8.495885427795242E-06</v>
+        <v>8.495885906454209E-06</v>
       </c>
       <c r="C4">
-        <v>0.002608180336051342</v>
+        <v>0.002608180434642032</v>
       </c>
       <c r="D4">
-        <v>0.0001124776147915764</v>
+        <v>0.000112477639868401</v>
       </c>
       <c r="E4">
-        <v>0.000149896404571002</v>
+        <v>0.0001498964370452674</v>
       </c>
       <c r="F4">
-        <v>0.00553575517240965</v>
+        <v>0.005535757571885542</v>
       </c>
       <c r="G4">
-        <v>0.0006726734160141826</v>
+        <v>0.0006726734449166423</v>
       </c>
       <c r="H4">
-        <v>4.673999892672767E-05</v>
+        <v>4.673999897098632E-05</v>
       </c>
       <c r="I4">
-        <v>6.403698787095511E-06</v>
+        <v>6.403698790976597E-06</v>
       </c>
       <c r="J4">
-        <v>0.0005457582520904061</v>
+        <v>0.00054575828844406</v>
       </c>
       <c r="K4">
-        <v>0.003018374949786152</v>
+        <v>0.003018375325893357</v>
       </c>
       <c r="L4">
-        <v>0.001323482354637457</v>
+        <v>0.001323482358080603</v>
       </c>
       <c r="M4">
-        <v>7.170882836988848E-05</v>
+        <v>7.170883895345289E-05</v>
       </c>
       <c r="N4">
-        <v>6.976644149336728E-05</v>
+        <v>6.976644939927996E-05</v>
       </c>
       <c r="O4">
-        <v>1.278067873837511E-09</v>
+        <v>1.278067893210994E-09</v>
       </c>
       <c r="P4">
-        <v>3.521594547465457E-06</v>
+        <v>3.521594747366105E-06</v>
       </c>
       <c r="Q4">
-        <v>4.721177061878261E-06</v>
+        <v>4.721177327287276E-06</v>
       </c>
       <c r="R4">
-        <v>4.894953267074086E-06</v>
+        <v>4.894953575217246E-06</v>
       </c>
       <c r="S4">
-        <v>0.000105797763263886</v>
+        <v>0.0001057977639349754</v>
       </c>
       <c r="T4">
-        <v>4.184198485227963E-11</v>
+        <v>4.184198544135849E-11</v>
       </c>
       <c r="U4">
-        <v>7.383799832298816E-09</v>
+        <v>7.383800257586309E-09</v>
       </c>
       <c r="V4">
-        <v>0.0001580186576278235</v>
+        <v>0.0001580186694056221</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.0005473479012665486</v>
+        <v>0.000547347898797051</v>
       </c>
       <c r="C5">
-        <v>0.111409527219216</v>
+        <v>0.1114095289114202</v>
       </c>
       <c r="D5">
-        <v>0.02532106357733819</v>
+        <v>0.02532106329699813</v>
       </c>
       <c r="E5">
-        <v>0.03746388267783222</v>
+        <v>0.03746388232368629</v>
       </c>
       <c r="F5">
-        <v>0.9136830940678209</v>
+        <v>0.9136830657440745</v>
       </c>
       <c r="G5">
-        <v>0.03223830564821104</v>
+        <v>0.03223830639328049</v>
       </c>
       <c r="H5">
-        <v>6.307477871648142E-05</v>
+        <v>6.307477858576319E-05</v>
       </c>
       <c r="I5">
-        <v>3.560176019283788E-06</v>
+        <v>3.560176030972905E-06</v>
       </c>
       <c r="J5">
-        <v>0.01770091730354003</v>
+        <v>0.01770091744301151</v>
       </c>
       <c r="K5">
-        <v>0.4456233302788005</v>
+        <v>0.4456233263586372</v>
       </c>
       <c r="L5">
-        <v>0.004682702895017933</v>
+        <v>0.004682702985931589</v>
       </c>
       <c r="M5">
-        <v>0.002402292639154908</v>
+        <v>0.002402292237691487</v>
       </c>
       <c r="N5">
-        <v>0.003659590486393369</v>
+        <v>0.003659590440272023</v>
       </c>
       <c r="O5">
-        <v>3.057861373652564E-08</v>
+        <v>3.057861364936826E-08</v>
       </c>
       <c r="P5">
-        <v>0.0002361993788292964</v>
+        <v>0.0002361993784178433</v>
       </c>
       <c r="Q5">
-        <v>0.0003303129896371491</v>
+        <v>0.0003303129924871331</v>
       </c>
       <c r="R5">
-        <v>0.0003394339725966874</v>
+        <v>0.0003394339770895368</v>
       </c>
       <c r="S5">
-        <v>0.00108936984110531</v>
+        <v>0.001089369843264467</v>
       </c>
       <c r="T5">
-        <v>5.673200568662777E-10</v>
+        <v>5.673200574560307E-10</v>
       </c>
       <c r="U5">
-        <v>4.149488740902847E-07</v>
+        <v>4.149488749806174E-07</v>
       </c>
       <c r="V5">
-        <v>0.009560071029235964</v>
+        <v>0.009560071337480276</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002793515309214348</v>
+        <v>0.002503354929210945</v>
       </c>
       <c r="C6">
-        <v>1.144075598335055</v>
+        <v>0.8673962452093036</v>
       </c>
       <c r="D6">
-        <v>0.03284467467873559</v>
+        <v>0.0453163704297771</v>
       </c>
       <c r="E6">
-        <v>0.04060540155391732</v>
+        <v>0.05618483475136771</v>
       </c>
       <c r="F6">
-        <v>3.218580668760483</v>
+        <v>3.855654731979884</v>
       </c>
       <c r="G6">
-        <v>0.3215819571214263</v>
+        <v>0.2279322453861688</v>
       </c>
       <c r="H6">
-        <v>0.0002457757746095421</v>
+        <v>0.0002361667358215699</v>
       </c>
       <c r="I6">
-        <v>0.0002182801540031446</v>
+        <v>0.0001964381908713699</v>
       </c>
       <c r="J6">
-        <v>0.04584409023017953</v>
+        <v>0.03795220660558408</v>
       </c>
       <c r="K6">
-        <v>0.656013413648841</v>
+        <v>0.7295948468712278</v>
       </c>
       <c r="L6">
-        <v>0.07452808733982014</v>
+        <v>0.06957112401986394</v>
       </c>
       <c r="M6">
-        <v>0.1201564229337869</v>
+        <v>0.1108637627871809</v>
       </c>
       <c r="N6">
-        <v>0.01855391617186008</v>
+        <v>0.02099694185795428</v>
       </c>
       <c r="O6">
-        <v>1.295096184024007E-06</v>
+        <v>1.146422133601729E-06</v>
       </c>
       <c r="P6">
-        <v>0.001025851379675298</v>
+        <v>0.0009397790632360552</v>
       </c>
       <c r="Q6">
-        <v>0.002577235162158029</v>
+        <v>0.001775453285995951</v>
       </c>
       <c r="R6">
-        <v>0.002708424403247141</v>
+        <v>0.001873070706544184</v>
       </c>
       <c r="S6">
-        <v>0.02382786534654507</v>
+        <v>0.02113764988568549</v>
       </c>
       <c r="T6">
-        <v>5.440775308717103E-09</v>
+        <v>4.425214341639359E-09</v>
       </c>
       <c r="U6">
-        <v>2.064801255646518E-06</v>
+        <v>1.737624283224938E-06</v>
       </c>
       <c r="V6">
-        <v>0.1124901491261296</v>
+        <v>0.07954648899242646</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.0005781492373447634</v>
+        <v>0.0005781492377227068</v>
       </c>
       <c r="C7">
-        <v>0.2026360648972184</v>
+        <v>0.2026360645298764</v>
       </c>
       <c r="D7">
-        <v>0.006015986605350543</v>
+        <v>0.006015986719335068</v>
       </c>
       <c r="E7">
-        <v>0.00791560391547335</v>
+        <v>0.007915604058195469</v>
       </c>
       <c r="F7">
-        <v>0.5583824957661546</v>
+        <v>0.5583825022385557</v>
       </c>
       <c r="G7">
-        <v>0.09515669652260776</v>
+        <v>0.09515669647673118</v>
       </c>
       <c r="H7">
-        <v>5.070391725573388E-05</v>
+        <v>5.070391715807631E-05</v>
       </c>
       <c r="I7">
-        <v>6.930443833891851E-06</v>
+        <v>6.930443829990701E-06</v>
       </c>
       <c r="J7">
-        <v>0.009045009509272063</v>
+        <v>0.009045009357401755</v>
       </c>
       <c r="K7">
-        <v>0.133127246910582</v>
+        <v>0.1331272481884581</v>
       </c>
       <c r="L7">
-        <v>0.01183923018738128</v>
+        <v>0.01183923016685155</v>
       </c>
       <c r="M7">
-        <v>0.006223448971403967</v>
+        <v>0.006223449022458132</v>
       </c>
       <c r="N7">
-        <v>0.004885585103008306</v>
+        <v>0.004885585095362979</v>
       </c>
       <c r="O7">
-        <v>6.10922411533003E-08</v>
+        <v>6.109224111905866E-08</v>
       </c>
       <c r="P7">
-        <v>0.0002646728660051978</v>
+        <v>0.0002646728659201021</v>
       </c>
       <c r="Q7">
-        <v>0.0004351791442641645</v>
+        <v>0.0004351791436815666</v>
       </c>
       <c r="R7">
-        <v>0.000462480966999671</v>
+        <v>0.000462480966403099</v>
       </c>
       <c r="S7">
-        <v>0.00227153747163119</v>
+        <v>0.002271537473557441</v>
       </c>
       <c r="T7">
-        <v>8.503408547845072E-10</v>
+        <v>8.503408543139676E-10</v>
       </c>
       <c r="U7">
-        <v>4.20299494673553E-07</v>
+        <v>4.202994940695894E-07</v>
       </c>
       <c r="V7">
-        <v>0.03483694569860749</v>
+        <v>0.03483694569906547</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>6.700317199288678E-06</v>
+        <v>6.70031720875652E-06</v>
       </c>
       <c r="C8">
-        <v>0.002030465233626986</v>
+        <v>0.002030465233762771</v>
       </c>
       <c r="D8">
-        <v>6.74245324402588E-05</v>
+        <v>6.742453371591628E-05</v>
       </c>
       <c r="E8">
-        <v>8.951436087316048E-05</v>
+        <v>8.951436251261685E-05</v>
       </c>
       <c r="F8">
-        <v>0.006561235837257874</v>
+        <v>0.006561235943774916</v>
       </c>
       <c r="G8">
-        <v>0.0009081999594055464</v>
+        <v>0.0009081999604316996</v>
       </c>
       <c r="H8">
-        <v>7.407663466320073E-07</v>
+        <v>7.407663458776844E-07</v>
       </c>
       <c r="I8">
-        <v>2.789308720565773E-07</v>
+        <v>2.789308720517311E-07</v>
       </c>
       <c r="J8">
-        <v>8.98661809917967E-05</v>
+        <v>8.986618080682147E-05</v>
       </c>
       <c r="K8">
-        <v>0.001906933168666773</v>
+        <v>0.001906933185664376</v>
       </c>
       <c r="L8">
-        <v>0.0001549177896083973</v>
+        <v>0.0001549177895521046</v>
       </c>
       <c r="M8">
-        <v>0.0007143758248559282</v>
+        <v>0.0007143758243653391</v>
       </c>
       <c r="N8">
-        <v>0.0006225583473966445</v>
+        <v>0.0006225583473933199</v>
       </c>
       <c r="O8">
-        <v>8.261620200786305E-10</v>
+        <v>8.261620201256364E-10</v>
       </c>
       <c r="P8">
-        <v>3.365580175178098E-06</v>
+        <v>3.365580175530365E-06</v>
       </c>
       <c r="Q8">
-        <v>5.301223696096857E-06</v>
+        <v>5.301223697362926E-06</v>
       </c>
       <c r="R8">
-        <v>5.624321385709384E-06</v>
+        <v>5.624321390957251E-06</v>
       </c>
       <c r="S8">
-        <v>3.093410029026004E-05</v>
+        <v>3.09341003471216E-05</v>
       </c>
       <c r="T8">
-        <v>1.479547903983331E-11</v>
+        <v>1.479547904030699E-11</v>
       </c>
       <c r="U8">
-        <v>4.807741483866565E-09</v>
+        <v>4.807741487597365E-09</v>
       </c>
       <c r="V8">
-        <v>0.0004624424333687105</v>
+        <v>0.0004624424340417588</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.0004597078033071241</v>
+        <v>0.0004597078026806191</v>
       </c>
       <c r="C9">
-        <v>0.1070782899728079</v>
+        <v>0.1070782896375726</v>
       </c>
       <c r="D9">
-        <v>0.004164259962342492</v>
+        <v>0.004164259974889026</v>
       </c>
       <c r="E9">
-        <v>0.005632027573172251</v>
+        <v>0.00563202758855924</v>
       </c>
       <c r="F9">
-        <v>0.3833743507042124</v>
+        <v>0.3833743521626614</v>
       </c>
       <c r="G9">
-        <v>0.05521716779912315</v>
+        <v>0.05521716773128909</v>
       </c>
       <c r="H9">
-        <v>2.691376276701745E-05</v>
+        <v>2.691376264785454E-05</v>
       </c>
       <c r="I9">
-        <v>6.304627252534172E-06</v>
+        <v>6.3046272395513E-06</v>
       </c>
       <c r="J9">
-        <v>0.005636694702556532</v>
+        <v>0.005636694584842895</v>
       </c>
       <c r="K9">
-        <v>0.1083376141038868</v>
+        <v>0.1083376143152649</v>
       </c>
       <c r="L9">
-        <v>0.007139214961236662</v>
+        <v>0.007139214949371195</v>
       </c>
       <c r="M9">
-        <v>0.0100265977485204</v>
+        <v>0.01002659768277032</v>
       </c>
       <c r="N9">
-        <v>0.007699558117500917</v>
+        <v>0.0076995580901645</v>
       </c>
       <c r="O9">
-        <v>3.056578875681478E-08</v>
+        <v>3.05657886816964E-08</v>
       </c>
       <c r="P9">
-        <v>0.0001970293954531228</v>
+        <v>0.0001970293949991376</v>
       </c>
       <c r="Q9">
-        <v>0.0004027196331675208</v>
+        <v>0.0004027196322917536</v>
       </c>
       <c r="R9">
-        <v>0.0004317525064688408</v>
+        <v>0.000431752505569988</v>
       </c>
       <c r="S9">
-        <v>0.001529438400832229</v>
+        <v>0.00152943840147737</v>
       </c>
       <c r="T9">
-        <v>5.678734700384537E-10</v>
+        <v>5.678734682142281E-10</v>
       </c>
       <c r="U9">
-        <v>2.704242711537164E-07</v>
+        <v>2.704242702150363E-07</v>
       </c>
       <c r="V9">
-        <v>0.02286846110763362</v>
+        <v>0.02286846108938227</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>9.422588025827082E-05</v>
+        <v>9.422588080983723E-05</v>
       </c>
       <c r="C10">
-        <v>0.03243189525654241</v>
+        <v>0.0324318953021533</v>
       </c>
       <c r="D10">
-        <v>0.00110678597278151</v>
+        <v>0.001106786022522039</v>
       </c>
       <c r="E10">
-        <v>0.001427522944354499</v>
+        <v>0.001427523007792908</v>
       </c>
       <c r="F10">
-        <v>0.1025072542053238</v>
+        <v>0.1025072584728061</v>
       </c>
       <c r="G10">
-        <v>0.01432989093212936</v>
+        <v>0.01432989095338969</v>
       </c>
       <c r="H10">
-        <v>9.109992941519333E-06</v>
+        <v>9.109992992625853E-06</v>
       </c>
       <c r="I10">
-        <v>1.073992526776377E-06</v>
+        <v>1.073992528634097E-06</v>
       </c>
       <c r="J10">
-        <v>0.001538819944837814</v>
+        <v>0.001538819958752815</v>
       </c>
       <c r="K10">
-        <v>0.02373957217307529</v>
+        <v>0.02373957285655053</v>
       </c>
       <c r="L10">
-        <v>0.002051208596204376</v>
+        <v>0.00205120860205144</v>
       </c>
       <c r="M10">
-        <v>0.0007037847757842225</v>
+        <v>0.0007037848083334977</v>
       </c>
       <c r="N10">
-        <v>0.0005549222397169376</v>
+        <v>0.0005549222428784093</v>
       </c>
       <c r="O10">
-        <v>8.269592854697945E-09</v>
+        <v>8.269592881283571E-09</v>
       </c>
       <c r="P10">
-        <v>4.537142440186944E-05</v>
+        <v>4.537142468681739E-05</v>
       </c>
       <c r="Q10">
-        <v>7.160943050376832E-05</v>
+        <v>7.160943064903408E-05</v>
       </c>
       <c r="R10">
-        <v>7.670196142258992E-05</v>
+        <v>7.670196158013245E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003679586707660444</v>
+        <v>0.0003679586714652226</v>
       </c>
       <c r="T10">
-        <v>1.351402123055962E-10</v>
+        <v>1.351402129834595E-10</v>
       </c>
       <c r="U10">
-        <v>7.003126380146573E-08</v>
+        <v>7.003126422655374E-08</v>
       </c>
       <c r="V10">
-        <v>0.005007019323534282</v>
+        <v>0.00500701933268361</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.002044196336102993</v>
+        <v>-0.002044196326222018</v>
       </c>
       <c r="C11">
-        <v>-2.481352491919722</v>
+        <v>-2.481352488919142</v>
       </c>
       <c r="D11">
-        <v>-0.04186986511484831</v>
+        <v>-0.04186986535766615</v>
       </c>
       <c r="E11">
-        <v>-0.05713111270606088</v>
+        <v>-0.05713111299804116</v>
       </c>
       <c r="F11">
-        <v>-2.287034816592695</v>
+        <v>-2.287034840006902</v>
       </c>
       <c r="G11">
-        <v>-0.248013479150782</v>
+        <v>-0.2480134786844427</v>
       </c>
       <c r="H11">
-        <v>-0.0006770049302374156</v>
+        <v>-0.0006770049292796311</v>
       </c>
       <c r="I11">
-        <v>-5.377657237608022E-05</v>
+        <v>-5.377657218618273E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2721480264434417</v>
+        <v>-0.2721480257127962</v>
       </c>
       <c r="K11">
-        <v>-0.981885516446131</v>
+        <v>-0.981885518238096</v>
       </c>
       <c r="L11">
-        <v>-0.03679645541239178</v>
+        <v>-0.036796455223291</v>
       </c>
       <c r="M11">
-        <v>-0.009861757016032147</v>
+        <v>-0.00986175545758089</v>
       </c>
       <c r="N11">
-        <v>-0.03895400138602854</v>
+        <v>-0.0389540011246822</v>
       </c>
       <c r="O11">
-        <v>-6.581680722201237E-07</v>
+        <v>-6.581680715341217E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0009343549282810577</v>
+        <v>-0.0009343549237509944</v>
       </c>
       <c r="Q11">
-        <v>-0.00183773645224643</v>
+        <v>-0.001837736444228895</v>
       </c>
       <c r="R11">
-        <v>-0.001970886410524037</v>
+        <v>-0.001970886402708541</v>
       </c>
       <c r="S11">
-        <v>-0.008419273713206941</v>
+        <v>-0.008419273710852396</v>
       </c>
       <c r="T11">
-        <v>-8.238229915808357E-09</v>
+        <v>-8.238229890291081E-09</v>
       </c>
       <c r="U11">
-        <v>-4.038304850824226E-06</v>
+        <v>-4.038304843159046E-06</v>
       </c>
       <c r="V11">
-        <v>-0.1021460397453685</v>
+        <v>-0.1021460396308999</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.002044196332509781</v>
+        <v>-0.002044196324356279</v>
       </c>
       <c r="C12">
-        <v>-2.481352491607859</v>
+        <v>-2.481352488607617</v>
       </c>
       <c r="D12">
-        <v>-0.04186986487992241</v>
+        <v>-0.0418698652603641</v>
       </c>
       <c r="E12">
-        <v>-0.05713111240656681</v>
+        <v>-0.05713111287251869</v>
       </c>
       <c r="F12">
-        <v>-2.287034796545412</v>
+        <v>-2.287034830101087</v>
       </c>
       <c r="G12">
-        <v>-0.2480134791209921</v>
+        <v>-0.2480134785999427</v>
       </c>
       <c r="H12">
-        <v>-0.0006770049299073941</v>
+        <v>-0.000677004929144173</v>
       </c>
       <c r="I12">
-        <v>-5.377657236058737E-05</v>
+        <v>-5.377657217534674E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2721480263172309</v>
+        <v>-0.2721480257284302</v>
       </c>
       <c r="K12">
-        <v>-0.981885513158443</v>
+        <v>-0.9818855164414054</v>
       </c>
       <c r="L12">
-        <v>-0.03679645538147767</v>
+        <v>-0.03679645522859883</v>
       </c>
       <c r="M12">
-        <v>-0.009861757242639888</v>
+        <v>-0.009861755057437306</v>
       </c>
       <c r="N12">
-        <v>-0.03895400134756154</v>
+        <v>-0.03895400110193124</v>
       </c>
       <c r="O12">
-        <v>-6.581680721230569E-07</v>
+        <v>-6.581680714546692E-07</v>
       </c>
       <c r="P12">
-        <v>-0.0009343549268632004</v>
+        <v>-0.0009343549231347371</v>
       </c>
       <c r="Q12">
-        <v>-0.001837736450848988</v>
+        <v>-0.001837736443114061</v>
       </c>
       <c r="R12">
-        <v>-0.001970886409167742</v>
+        <v>-0.001970886401437722</v>
       </c>
       <c r="S12">
-        <v>-0.008419273711035284</v>
+        <v>-0.008419273709020852</v>
       </c>
       <c r="T12">
-        <v>-8.238229915365718E-09</v>
+        <v>-8.23822988502249E-09</v>
       </c>
       <c r="U12">
-        <v>-4.038304848469093E-06</v>
+        <v>-4.038304842120076E-06</v>
       </c>
       <c r="V12">
-        <v>-0.1021460397372079</v>
+        <v>-0.1021460395908742</v>
       </c>
     </row>
     <row r="13" spans="1:22">

--- a/results/LCIA/LCIA_results_uniquie.xlsx
+++ b/results/LCIA/LCIA_results_uniquie.xlsx
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.01229125783546574</v>
+        <v>0.01229199709628359</v>
       </c>
       <c r="C2">
-        <v>3.052535353872697</v>
+        <v>3.052732487970507</v>
       </c>
       <c r="D2">
-        <v>0.3675763307360715</v>
+        <v>0.3675972755577946</v>
       </c>
       <c r="E2">
-        <v>0.5248603266804406</v>
+        <v>0.5248887156975893</v>
       </c>
       <c r="F2">
-        <v>18.94531038849643</v>
+        <v>18.94659312212276</v>
       </c>
       <c r="G2">
-        <v>0.8253371367419875</v>
+        <v>0.8253816734104611</v>
       </c>
       <c r="H2">
-        <v>0.001161068606630435</v>
+        <v>0.001162147619843454</v>
       </c>
       <c r="I2">
-        <v>0.0003345961324177472</v>
+        <v>0.0003382576448287223</v>
       </c>
       <c r="J2">
-        <v>0.3361697488287564</v>
+        <v>0.3362047833232007</v>
       </c>
       <c r="K2">
-        <v>6.374751821673151</v>
+        <v>6.376815810788766</v>
       </c>
       <c r="L2">
-        <v>0.3181080999019055</v>
+        <v>0.3181413549005253</v>
       </c>
       <c r="M2">
-        <v>0.2955669676667603</v>
+        <v>0.2955726151662497</v>
       </c>
       <c r="N2">
-        <v>0.08472182039253612</v>
+        <v>0.08472972197669582</v>
       </c>
       <c r="O2">
-        <v>1.510521313830155E-06</v>
+        <v>1.511537861317185E-06</v>
       </c>
       <c r="P2">
-        <v>0.005235490183266196</v>
+        <v>0.005235772989002607</v>
       </c>
       <c r="Q2">
-        <v>0.009489413270699467</v>
+        <v>0.009489967531160505</v>
       </c>
       <c r="R2">
-        <v>0.009773054826823828</v>
+        <v>0.009773628169933941</v>
       </c>
       <c r="S2">
-        <v>0.03282319916465733</v>
+        <v>0.0328260060419574</v>
       </c>
       <c r="T2">
-        <v>1.63415136964019E-08</v>
+        <v>1.634310799480886E-08</v>
       </c>
       <c r="U2">
-        <v>8.777329980173061E-06</v>
+        <v>8.77828539138175E-06</v>
       </c>
       <c r="V2">
-        <v>0.2653962837710447</v>
+        <v>0.2654115347313942</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.008129370896680477</v>
+        <v>0.00812937073052946</v>
       </c>
       <c r="C3">
-        <v>2.265880885977579</v>
+        <v>2.265880863142289</v>
       </c>
       <c r="D3">
-        <v>0.1796235022741767</v>
+        <v>0.1796234939830453</v>
       </c>
       <c r="E3">
-        <v>0.2365080200276415</v>
+        <v>0.2365080093382055</v>
       </c>
       <c r="F3">
-        <v>8.818109510714288</v>
+        <v>8.818108799959905</v>
       </c>
       <c r="G3">
-        <v>0.607237570357634</v>
+        <v>0.607237563809814</v>
       </c>
       <c r="H3">
-        <v>0.001915808697341648</v>
+        <v>0.001915808686611129</v>
       </c>
       <c r="I3">
-        <v>0.0002082153782275133</v>
+        <v>0.0002082153768906839</v>
       </c>
       <c r="J3">
-        <v>0.4312754870458587</v>
+        <v>0.4312754775555839</v>
       </c>
       <c r="K3">
-        <v>4.107404693250444</v>
+        <v>4.107404572756074</v>
       </c>
       <c r="L3">
-        <v>1.190368314586822</v>
+        <v>1.190368314084639</v>
       </c>
       <c r="M3">
-        <v>0.07253609386996789</v>
+        <v>0.07253609260032939</v>
       </c>
       <c r="N3">
-        <v>0.1359272110239872</v>
+        <v>0.1359272078761815</v>
       </c>
       <c r="O3">
-        <v>1.063829401897339E-06</v>
+        <v>1.063829394329135E-06</v>
       </c>
       <c r="P3">
-        <v>0.003317429316012532</v>
+        <v>0.003317429256811309</v>
       </c>
       <c r="Q3">
-        <v>0.004422416997676142</v>
+        <v>0.004422416904176428</v>
       </c>
       <c r="R3">
-        <v>0.004567556308621614</v>
+        <v>0.004567556204752203</v>
       </c>
       <c r="S3">
-        <v>0.120006413783038</v>
+        <v>0.1200064135685319</v>
       </c>
       <c r="T3">
-        <v>1.083474877274201E-08</v>
+        <v>1.083474862674493E-08</v>
       </c>
       <c r="U3">
-        <v>6.83622634738497E-06</v>
+        <v>6.836226229454414E-06</v>
       </c>
       <c r="V3">
-        <v>0.1609293325034777</v>
+        <v>0.1609293295719713</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>8.495885906454209E-06</v>
+        <v>8.495885060397996E-06</v>
       </c>
       <c r="C4">
-        <v>0.002608180434642032</v>
+        <v>0.002608180333680341</v>
       </c>
       <c r="D4">
-        <v>0.000112477639868401</v>
+        <v>0.0001124775877569057</v>
       </c>
       <c r="E4">
-        <v>0.0001498964370452674</v>
+        <v>0.0001498963700539129</v>
       </c>
       <c r="F4">
-        <v>0.005535757571885542</v>
+        <v>0.005535752783248604</v>
       </c>
       <c r="G4">
-        <v>0.0006726734449166423</v>
+        <v>0.0006726734177064005</v>
       </c>
       <c r="H4">
-        <v>4.673999897098632E-05</v>
+        <v>4.673999889601907E-05</v>
       </c>
       <c r="I4">
-        <v>6.403698790976597E-06</v>
+        <v>6.403698785488937E-06</v>
       </c>
       <c r="J4">
-        <v>0.00054575828844406</v>
+        <v>0.0005457582494415898</v>
       </c>
       <c r="K4">
-        <v>0.003018375325893357</v>
+        <v>0.003018374544438085</v>
       </c>
       <c r="L4">
-        <v>0.001323482358080603</v>
+        <v>0.00132348235439018</v>
       </c>
       <c r="M4">
-        <v>7.170883895345289E-05</v>
+        <v>7.170880123824218E-05</v>
       </c>
       <c r="N4">
-        <v>6.976644939927996E-05</v>
+        <v>6.976643900766331E-05</v>
       </c>
       <c r="O4">
-        <v>1.278067893210994E-09</v>
+        <v>1.278067866997873E-09</v>
       </c>
       <c r="P4">
-        <v>3.521594747366105E-06</v>
+        <v>3.521594432432286E-06</v>
       </c>
       <c r="Q4">
-        <v>4.721177327287276E-06</v>
+        <v>4.721176991928717E-06</v>
       </c>
       <c r="R4">
-        <v>4.894953575217246E-06</v>
+        <v>4.894953210438316E-06</v>
       </c>
       <c r="S4">
-        <v>0.0001057977639349754</v>
+        <v>0.0001057977631853149</v>
       </c>
       <c r="T4">
-        <v>4.184198544135849E-11</v>
+        <v>4.18419844494608E-11</v>
       </c>
       <c r="U4">
-        <v>7.383800257586309E-09</v>
+        <v>7.383799656403298E-09</v>
       </c>
       <c r="V4">
-        <v>0.0001580186694056221</v>
+        <v>0.0001580186582814273</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.000547347898797051</v>
+        <v>0.0005473479027126305</v>
       </c>
       <c r="C5">
-        <v>0.1114095289114202</v>
+        <v>0.1114095295515804</v>
       </c>
       <c r="D5">
-        <v>0.02532106329699813</v>
+        <v>0.02532106347238364</v>
       </c>
       <c r="E5">
-        <v>0.03746388232368629</v>
+        <v>0.03746388255215476</v>
       </c>
       <c r="F5">
-        <v>0.9136830657440745</v>
+        <v>0.9136830837016988</v>
       </c>
       <c r="G5">
-        <v>0.03223830639328049</v>
+        <v>0.03223830652122459</v>
       </c>
       <c r="H5">
-        <v>6.307477858576319E-05</v>
+        <v>6.307477901979419E-05</v>
       </c>
       <c r="I5">
-        <v>3.560176030972905E-06</v>
+        <v>3.560176060529597E-06</v>
       </c>
       <c r="J5">
-        <v>0.01770091744301151</v>
+        <v>0.01770091773684154</v>
       </c>
       <c r="K5">
-        <v>0.4456233263586372</v>
+        <v>0.4456233292912944</v>
       </c>
       <c r="L5">
-        <v>0.004682702985931589</v>
+        <v>0.004682703033878047</v>
       </c>
       <c r="M5">
-        <v>0.002402292237691487</v>
+        <v>0.002402292293510346</v>
       </c>
       <c r="N5">
-        <v>0.003659590440272023</v>
+        <v>0.00365959050739069</v>
       </c>
       <c r="O5">
-        <v>3.057861364936826E-08</v>
+        <v>3.057861383303933E-08</v>
       </c>
       <c r="P5">
-        <v>0.0002361993784178433</v>
+        <v>0.0002361993801959296</v>
       </c>
       <c r="Q5">
-        <v>0.0003303129924871331</v>
+        <v>0.0003303129944826211</v>
       </c>
       <c r="R5">
-        <v>0.0003394339770895368</v>
+        <v>0.0003394339790776234</v>
       </c>
       <c r="S5">
-        <v>0.001089369843264467</v>
+        <v>0.001089369847128522</v>
       </c>
       <c r="T5">
-        <v>5.673200574560307E-10</v>
+        <v>5.673200614720285E-10</v>
       </c>
       <c r="U5">
-        <v>4.149488749806174E-07</v>
+        <v>4.149488783470022E-07</v>
       </c>
       <c r="V5">
-        <v>0.009560071337480276</v>
+        <v>0.009560071377192557</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002503354929210945</v>
+        <v>0.002504574691103717</v>
       </c>
       <c r="C6">
-        <v>0.8673962452093036</v>
+        <v>0.8677215029841205</v>
       </c>
       <c r="D6">
-        <v>0.0453163704297771</v>
+        <v>0.04535093143636985</v>
       </c>
       <c r="E6">
-        <v>0.05618483475136771</v>
+        <v>0.05623167918200671</v>
       </c>
       <c r="F6">
-        <v>3.855654731979884</v>
+        <v>3.857771367741288</v>
       </c>
       <c r="G6">
-        <v>0.2279322453861688</v>
+        <v>0.2280057281640619</v>
       </c>
       <c r="H6">
-        <v>0.0002361667358215699</v>
+        <v>0.0002379471037595553</v>
       </c>
       <c r="I6">
-        <v>0.0001964381908713699</v>
+        <v>0.0002024796856863665</v>
       </c>
       <c r="J6">
-        <v>0.03795220660558408</v>
+        <v>0.03801000792276081</v>
       </c>
       <c r="K6">
-        <v>0.7295948468712278</v>
+        <v>0.7330004489858964</v>
       </c>
       <c r="L6">
-        <v>0.06957112401986394</v>
+        <v>0.0696259939998906</v>
       </c>
       <c r="M6">
-        <v>0.1108637627871809</v>
+        <v>0.1108730744351484</v>
       </c>
       <c r="N6">
-        <v>0.02099694185795428</v>
+        <v>0.02100997804366874</v>
       </c>
       <c r="O6">
-        <v>1.146422133601729E-06</v>
+        <v>1.148099433712077E-06</v>
       </c>
       <c r="P6">
-        <v>0.0009397790632360552</v>
+        <v>0.0009402456728579312</v>
       </c>
       <c r="Q6">
-        <v>0.001775453285995951</v>
+        <v>0.001776367783030318</v>
       </c>
       <c r="R6">
-        <v>0.001873070706544184</v>
+        <v>0.001874016690375171</v>
       </c>
       <c r="S6">
-        <v>0.02113764988568549</v>
+        <v>0.02114228119947322</v>
       </c>
       <c r="T6">
-        <v>4.425214341639359E-09</v>
+        <v>4.427844828973721E-09</v>
       </c>
       <c r="U6">
-        <v>1.737624283224938E-06</v>
+        <v>1.739200672600396E-06</v>
       </c>
       <c r="V6">
-        <v>0.07954648899242646</v>
+        <v>0.07957165226444442</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.0005781492377227068</v>
+        <v>0.0005781492427274235</v>
       </c>
       <c r="C7">
-        <v>0.2026360645298764</v>
+        <v>0.2026360653961477</v>
       </c>
       <c r="D7">
-        <v>0.006015986719335068</v>
+        <v>0.006015986917001894</v>
       </c>
       <c r="E7">
-        <v>0.007915604058195469</v>
+        <v>0.007915604318065842</v>
       </c>
       <c r="F7">
-        <v>0.5583825022385557</v>
+        <v>0.5583825266762101</v>
       </c>
       <c r="G7">
-        <v>0.09515669647673118</v>
+        <v>0.09515669666415993</v>
       </c>
       <c r="H7">
-        <v>5.070391715807631E-05</v>
+        <v>5.070391786696718E-05</v>
       </c>
       <c r="I7">
-        <v>6.930443829990701E-06</v>
+        <v>6.930443871100906E-06</v>
       </c>
       <c r="J7">
-        <v>0.009045009357401755</v>
+        <v>0.009045009736050949</v>
       </c>
       <c r="K7">
-        <v>0.1331272481884581</v>
+        <v>0.1331272519043568</v>
       </c>
       <c r="L7">
-        <v>0.01183923016685155</v>
+        <v>0.01183923024961593</v>
       </c>
       <c r="M7">
-        <v>0.006223449022458132</v>
+        <v>0.00622344902985862</v>
       </c>
       <c r="N7">
-        <v>0.004885585095362979</v>
+        <v>0.00488558517597257</v>
       </c>
       <c r="O7">
-        <v>6.109224111905866E-08</v>
+        <v>6.109224142515054E-08</v>
       </c>
       <c r="P7">
-        <v>0.0002646728659201021</v>
+        <v>0.0002646728682490472</v>
       </c>
       <c r="Q7">
-        <v>0.0004351791436815666</v>
+        <v>0.0004351791462142989</v>
       </c>
       <c r="R7">
-        <v>0.000462480966403099</v>
+        <v>0.0004624809689586109</v>
       </c>
       <c r="S7">
-        <v>0.002271537473557441</v>
+        <v>0.002271537477111327</v>
       </c>
       <c r="T7">
-        <v>8.503408543139676E-10</v>
+        <v>8.503408591137821E-10</v>
       </c>
       <c r="U7">
-        <v>4.202994940695894E-07</v>
+        <v>4.202994984522344E-07</v>
       </c>
       <c r="V7">
-        <v>0.03483694569906547</v>
+        <v>0.03483694574840697</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>6.70031720875652E-06</v>
+        <v>6.70031722483007E-06</v>
       </c>
       <c r="C8">
-        <v>0.002030465233762771</v>
+        <v>0.002030465234392464</v>
       </c>
       <c r="D8">
-        <v>6.742453371591628E-05</v>
+        <v>6.742453420540697E-05</v>
       </c>
       <c r="E8">
-        <v>8.951436251261685E-05</v>
+        <v>8.95143631807417E-05</v>
       </c>
       <c r="F8">
-        <v>0.006561235943774916</v>
+        <v>0.006561236023946545</v>
       </c>
       <c r="G8">
-        <v>0.0009081999604316996</v>
+        <v>0.0009081999589440927</v>
       </c>
       <c r="H8">
-        <v>7.407663458776844E-07</v>
+        <v>7.407663499306462E-07</v>
       </c>
       <c r="I8">
-        <v>2.789308720517311E-07</v>
+        <v>2.789308721489262E-07</v>
       </c>
       <c r="J8">
-        <v>8.986618080682147E-05</v>
+        <v>8.986618308471579E-05</v>
       </c>
       <c r="K8">
-        <v>0.001906933185664376</v>
+        <v>0.001906933198038364</v>
       </c>
       <c r="L8">
-        <v>0.0001549177895521046</v>
+        <v>0.00015491779018565</v>
       </c>
       <c r="M8">
-        <v>0.0007143758243653391</v>
+        <v>0.0007143758256802375</v>
       </c>
       <c r="N8">
-        <v>0.0006225583473933199</v>
+        <v>0.0006225583479612004</v>
       </c>
       <c r="O8">
-        <v>8.261620201256364E-10</v>
+        <v>8.261620205829917E-10</v>
       </c>
       <c r="P8">
-        <v>3.365580175530365E-06</v>
+        <v>3.365580186823112E-06</v>
       </c>
       <c r="Q8">
-        <v>5.301223697362926E-06</v>
+        <v>5.301223689883067E-06</v>
       </c>
       <c r="R8">
-        <v>5.624321390957251E-06</v>
+        <v>5.624321376767221E-06</v>
       </c>
       <c r="S8">
-        <v>3.09341003471216E-05</v>
+        <v>3.093410034080153E-05</v>
       </c>
       <c r="T8">
-        <v>1.479547904030699E-11</v>
+        <v>1.479547905936281E-11</v>
       </c>
       <c r="U8">
-        <v>4.807741487597365E-09</v>
+        <v>4.807741505648602E-09</v>
       </c>
       <c r="V8">
-        <v>0.0004624424340417588</v>
+        <v>0.0004624424331008353</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.0004597078026806191</v>
+        <v>0.000459707807054597</v>
       </c>
       <c r="C9">
-        <v>0.1070782896375726</v>
+        <v>0.1070782902289259</v>
       </c>
       <c r="D9">
-        <v>0.004164259974889026</v>
+        <v>0.004164260136178741</v>
       </c>
       <c r="E9">
-        <v>0.00563202758855924</v>
+        <v>0.00563202779827089</v>
       </c>
       <c r="F9">
-        <v>0.3833743521626614</v>
+        <v>0.3833743690335217</v>
       </c>
       <c r="G9">
-        <v>0.05521716773128909</v>
+        <v>0.05521716785094003</v>
       </c>
       <c r="H9">
-        <v>2.691376264785454E-05</v>
+        <v>2.691376305471376E-05</v>
       </c>
       <c r="I9">
-        <v>6.3046272395513E-06</v>
+        <v>6.304627264782972E-06</v>
       </c>
       <c r="J9">
-        <v>0.005636694584842895</v>
+        <v>0.00563669481928923</v>
       </c>
       <c r="K9">
-        <v>0.1083376143152649</v>
+        <v>0.1083376169658192</v>
       </c>
       <c r="L9">
-        <v>0.007139214949371195</v>
+        <v>0.00713921499264727</v>
       </c>
       <c r="M9">
-        <v>0.01002659768277032</v>
+        <v>0.01002659769397036</v>
       </c>
       <c r="N9">
-        <v>0.0076995580901645</v>
+        <v>0.007699558141220703</v>
       </c>
       <c r="O9">
-        <v>3.05657886816964E-08</v>
+        <v>3.0565788958976E-08</v>
       </c>
       <c r="P9">
-        <v>0.0001970293949991376</v>
+        <v>0.0001970293971827535</v>
       </c>
       <c r="Q9">
-        <v>0.0004027196322917536</v>
+        <v>0.0004027196361668657</v>
       </c>
       <c r="R9">
-        <v>0.000431752505569988</v>
+        <v>0.0004317525093761767</v>
       </c>
       <c r="S9">
-        <v>0.00152943840147737</v>
+        <v>0.0015294384034249</v>
       </c>
       <c r="T9">
-        <v>5.678734682142281E-10</v>
+        <v>5.678734719865987E-10</v>
       </c>
       <c r="U9">
-        <v>2.704242702150363E-07</v>
+        <v>2.704242735273062E-07</v>
       </c>
       <c r="V9">
-        <v>0.02286846108938227</v>
+        <v>0.02286846112444958</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>9.422588080983723E-05</v>
+        <v>9.422588113380166E-05</v>
       </c>
       <c r="C10">
-        <v>0.0324318953021533</v>
+        <v>0.03243189536349723</v>
       </c>
       <c r="D10">
-        <v>0.001106786022522039</v>
+        <v>0.001106786023250264</v>
       </c>
       <c r="E10">
-        <v>0.001427523007792908</v>
+        <v>0.001427523009725754</v>
       </c>
       <c r="F10">
-        <v>0.1025072584728061</v>
+        <v>0.1025072594717666</v>
       </c>
       <c r="G10">
-        <v>0.01432989095338969</v>
+        <v>0.01432989095919474</v>
       </c>
       <c r="H10">
-        <v>9.109992992625853E-06</v>
+        <v>9.109993042250734E-06</v>
       </c>
       <c r="I10">
-        <v>1.073992528634097E-06</v>
+        <v>1.07399253013502E-06</v>
       </c>
       <c r="J10">
-        <v>0.001538819958752815</v>
+        <v>0.001538819958673495</v>
       </c>
       <c r="K10">
-        <v>0.02373957285655053</v>
+        <v>0.02373957299648263</v>
       </c>
       <c r="L10">
-        <v>0.00205120860205144</v>
+        <v>0.002051208604315106</v>
       </c>
       <c r="M10">
-        <v>0.0007037848083334977</v>
+        <v>0.0007037848671322961</v>
       </c>
       <c r="N10">
-        <v>0.0005549222428784093</v>
+        <v>0.0005549222468210011</v>
       </c>
       <c r="O10">
-        <v>8.269592881283571E-09</v>
+        <v>8.26959290442425E-09</v>
       </c>
       <c r="P10">
-        <v>4.537142468681739E-05</v>
+        <v>4.537142481132222E-05</v>
       </c>
       <c r="Q10">
-        <v>7.160943064903408E-05</v>
+        <v>7.160943091232572E-05</v>
       </c>
       <c r="R10">
-        <v>7.670196158013245E-05</v>
+        <v>7.670196184181644E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003679586714652226</v>
+        <v>0.0003679586714755895</v>
       </c>
       <c r="T10">
-        <v>1.351402129834595E-10</v>
+        <v>1.351402138250597E-10</v>
       </c>
       <c r="U10">
-        <v>7.003126422655374E-08</v>
+        <v>7.003126439365376E-08</v>
       </c>
       <c r="V10">
-        <v>0.00500701933268361</v>
+        <v>0.005007019332489298</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.002044196326222018</v>
+        <v>-0.002044196398713531</v>
       </c>
       <c r="C11">
-        <v>-2.481352488919142</v>
+        <v>-2.481352492740934</v>
       </c>
       <c r="D11">
-        <v>-0.04186986535766615</v>
+        <v>-0.04186986912283071</v>
       </c>
       <c r="E11">
-        <v>-0.05713111299804116</v>
+        <v>-0.05713111788490775</v>
       </c>
       <c r="F11">
-        <v>-2.287034840006902</v>
+        <v>-2.287035213348966</v>
       </c>
       <c r="G11">
-        <v>-0.2480134786844427</v>
+        <v>-0.2480134784536926</v>
       </c>
       <c r="H11">
-        <v>-0.0006770049292796311</v>
+        <v>-0.0006770049361949746</v>
       </c>
       <c r="I11">
-        <v>-5.377657218618273E-05</v>
+        <v>-5.37765725036312E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2721480257127962</v>
+        <v>-0.2721480292423751</v>
       </c>
       <c r="K11">
-        <v>-0.981885518238096</v>
+        <v>-0.9818855802546094</v>
       </c>
       <c r="L11">
-        <v>-0.036796455223291</v>
+        <v>-0.03679645560036902</v>
       </c>
       <c r="M11">
-        <v>-0.00986175545758089</v>
+        <v>-0.009861757200522502</v>
       </c>
       <c r="N11">
-        <v>-0.0389540011246822</v>
+        <v>-0.03895400211894998</v>
       </c>
       <c r="O11">
-        <v>-6.581680715341217E-07</v>
+        <v>-6.58168074334901E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0009343549237509944</v>
+        <v>-0.0009343549538703578</v>
       </c>
       <c r="Q11">
-        <v>-0.001837736444228895</v>
+        <v>-0.001837736476303231</v>
       </c>
       <c r="R11">
-        <v>-0.001970886402708541</v>
+        <v>-0.00197088643035006</v>
       </c>
       <c r="S11">
-        <v>-0.008419273710852396</v>
+        <v>-0.008419273756406906</v>
       </c>
       <c r="T11">
-        <v>-8.238229890291081E-09</v>
+        <v>-8.238229947408713E-09</v>
       </c>
       <c r="U11">
-        <v>-4.038304843159046E-06</v>
+        <v>-4.038304891622938E-06</v>
       </c>
       <c r="V11">
-        <v>-0.1021460396308999</v>
+        <v>-0.1021460393847231</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.002044196324356279</v>
+        <v>-0.002044196398333044</v>
       </c>
       <c r="C12">
-        <v>-2.481352488607617</v>
+        <v>-2.4813524928339</v>
       </c>
       <c r="D12">
-        <v>-0.0418698652603641</v>
+        <v>-0.0418698690249031</v>
       </c>
       <c r="E12">
-        <v>-0.05713111287251869</v>
+        <v>-0.05713111776207429</v>
       </c>
       <c r="F12">
-        <v>-2.287034830101087</v>
+        <v>-2.287035206703154</v>
       </c>
       <c r="G12">
-        <v>-0.2480134785999427</v>
+        <v>-0.2480134784837976</v>
       </c>
       <c r="H12">
-        <v>-0.000677004929144173</v>
+        <v>-0.0006770049360975668</v>
       </c>
       <c r="I12">
-        <v>-5.377657217534674E-05</v>
+        <v>-5.377657250094218E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2721480257284302</v>
+        <v>-0.2721480292910999</v>
       </c>
       <c r="K12">
-        <v>-0.9818855164414054</v>
+        <v>-0.9818855790284623</v>
       </c>
       <c r="L12">
-        <v>-0.03679645522859883</v>
+        <v>-0.0367964556325791</v>
       </c>
       <c r="M12">
-        <v>-0.009861755057437306</v>
+        <v>-0.009861757386730558</v>
       </c>
       <c r="N12">
-        <v>-0.03895400110193124</v>
+        <v>-0.03895400212351226</v>
       </c>
       <c r="O12">
-        <v>-6.581680714546692E-07</v>
+        <v>-6.581680743065475E-07</v>
       </c>
       <c r="P12">
-        <v>-0.0009343549231347371</v>
+        <v>-0.0009343549537944562</v>
       </c>
       <c r="Q12">
-        <v>-0.001837736443114061</v>
+        <v>-0.001837736476584505</v>
       </c>
       <c r="R12">
-        <v>-0.001970886401437722</v>
+        <v>-0.001970886430654679</v>
       </c>
       <c r="S12">
-        <v>-0.008419273709020852</v>
+        <v>-0.008419273756276635</v>
       </c>
       <c r="T12">
-        <v>-8.23822988502249E-09</v>
+        <v>-8.238229949058972E-09</v>
       </c>
       <c r="U12">
-        <v>-4.038304842120076E-06</v>
+        <v>-4.038304891544153E-06</v>
       </c>
       <c r="V12">
-        <v>-0.1021460395908742</v>
+        <v>-0.1021460393979756</v>
       </c>
     </row>
     <row r="13" spans="1:22">

--- a/results/LCIA/LCIA_results_uniquie.xlsx
+++ b/results/LCIA/LCIA_results_uniquie.xlsx
@@ -79,9 +79,6 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>'full box of vials' (unit, NO, None)</t>
-  </si>
-  <si>
     <t>'market for sodium chlorate, powder' (kilogram, RER, None)</t>
   </si>
   <si>
@@ -91,16 +88,19 @@
     <t>'medical connector' (unit, GLO, None)</t>
   </si>
   <si>
+    <t>'packaging of glass vials with penicillin G' (unit, NO, None)</t>
+  </si>
+  <si>
     <t>'packed box of penicillin' (unit, SE, None)</t>
   </si>
   <si>
     <t>'production of IV sets' (unit, RER, None)</t>
   </si>
   <si>
+    <t>'production of a pair of gloves' (unit, MY, None)</t>
+  </si>
+  <si>
     <t>'production of alchohol wipes' (unit, DK, None)</t>
-  </si>
-  <si>
-    <t>'production of gloves' (unit, MY, None)</t>
   </si>
   <si>
     <t>'stopcock' (unit, GLO, None)</t>
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.01229199709628359</v>
+        <v>0.008129370695716244</v>
       </c>
       <c r="C2">
-        <v>3.052732487970507</v>
+        <v>2.265880850336156</v>
       </c>
       <c r="D2">
-        <v>0.3675972755577946</v>
+        <v>0.1796234922074676</v>
       </c>
       <c r="E2">
-        <v>0.5248887156975893</v>
+        <v>0.2365080070114341</v>
       </c>
       <c r="F2">
-        <v>18.94659312212276</v>
+        <v>8.818108620020977</v>
       </c>
       <c r="G2">
-        <v>0.8253816734104611</v>
+        <v>0.6072375609908904</v>
       </c>
       <c r="H2">
-        <v>0.001162147619843454</v>
+        <v>0.001915808677453043</v>
       </c>
       <c r="I2">
-        <v>0.0003382576448287223</v>
+        <v>0.0002082153765173074</v>
       </c>
       <c r="J2">
-        <v>0.3362047833232007</v>
+        <v>0.4312754708958648</v>
       </c>
       <c r="K2">
-        <v>6.376815810788766</v>
+        <v>4.10740454361543</v>
       </c>
       <c r="L2">
-        <v>0.3181413549005253</v>
+        <v>1.190368312945629</v>
       </c>
       <c r="M2">
-        <v>0.2955726151662497</v>
+        <v>0.07253609535142454</v>
       </c>
       <c r="N2">
-        <v>0.08472972197669582</v>
+        <v>0.1359272064653131</v>
       </c>
       <c r="O2">
-        <v>1.511537861317185E-06</v>
+        <v>1.063829392935665E-06</v>
       </c>
       <c r="P2">
-        <v>0.005235772989002607</v>
+        <v>0.003317429232728206</v>
       </c>
       <c r="Q2">
-        <v>0.009489967531160505</v>
+        <v>0.004422416867742256</v>
       </c>
       <c r="R2">
-        <v>0.009773628169933941</v>
+        <v>0.004567556166330486</v>
       </c>
       <c r="S2">
-        <v>0.0328260060419574</v>
+        <v>0.1200064134930158</v>
       </c>
       <c r="T2">
-        <v>1.634310799480886E-08</v>
+        <v>1.083474859330304E-08</v>
       </c>
       <c r="U2">
-        <v>8.77828539138175E-06</v>
+        <v>6.836226173468036E-06</v>
       </c>
       <c r="V2">
-        <v>0.2654115347313942</v>
+        <v>0.1609293286047035</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.00812937073052946</v>
+        <v>8.49588496423555E-06</v>
       </c>
       <c r="C3">
-        <v>2.265880863142289</v>
+        <v>0.002608180301199517</v>
       </c>
       <c r="D3">
-        <v>0.1796234939830453</v>
+        <v>0.0001124775847746949</v>
       </c>
       <c r="E3">
-        <v>0.2365080093382055</v>
+        <v>0.0001498963660161549</v>
       </c>
       <c r="F3">
-        <v>8.818108799959905</v>
+        <v>0.005535752540869971</v>
       </c>
       <c r="G3">
-        <v>0.607237563809814</v>
+        <v>0.0006726734099012684</v>
       </c>
       <c r="H3">
-        <v>0.001915808686611129</v>
+        <v>4.673999887934856E-05</v>
       </c>
       <c r="I3">
-        <v>0.0002082153768906839</v>
+        <v>6.403698784649995E-06</v>
       </c>
       <c r="J3">
-        <v>0.4312754775555839</v>
+        <v>0.0005457582357520327</v>
       </c>
       <c r="K3">
-        <v>4.107404572756074</v>
+        <v>0.003018374494305449</v>
       </c>
       <c r="L3">
-        <v>1.190368314084639</v>
+        <v>0.001323482351792715</v>
       </c>
       <c r="M3">
-        <v>0.07253609260032939</v>
+        <v>7.170881597748767E-05</v>
       </c>
       <c r="N3">
-        <v>0.1359272078761815</v>
+        <v>6.976643490977473E-05</v>
       </c>
       <c r="O3">
-        <v>1.063829394329135E-06</v>
+        <v>1.278067859528642E-09</v>
       </c>
       <c r="P3">
-        <v>0.003317429256811309</v>
+        <v>3.521594376198354E-06</v>
       </c>
       <c r="Q3">
-        <v>0.004422416904176428</v>
+        <v>4.721176863451457E-06</v>
       </c>
       <c r="R3">
-        <v>0.004567556204752203</v>
+        <v>4.894953070982019E-06</v>
       </c>
       <c r="S3">
-        <v>0.1200064135685319</v>
+        <v>0.0001057977629858891</v>
       </c>
       <c r="T3">
-        <v>1.083474862674493E-08</v>
+        <v>4.184198443453184E-11</v>
       </c>
       <c r="U3">
-        <v>6.836226229454414E-06</v>
+        <v>7.38379953345289E-09</v>
       </c>
       <c r="V3">
-        <v>0.1609293295719713</v>
+        <v>0.0001580186552631967</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>8.495885060397996E-06</v>
+        <v>0.0005473478976743189</v>
       </c>
       <c r="C4">
-        <v>0.002608180333680341</v>
+        <v>0.1114095287569723</v>
       </c>
       <c r="D4">
-        <v>0.0001124775877569057</v>
+        <v>0.02532106321273271</v>
       </c>
       <c r="E4">
-        <v>0.0001498963700539129</v>
+        <v>0.03746388221697419</v>
       </c>
       <c r="F4">
-        <v>0.005535752783248604</v>
+        <v>0.9136830596574729</v>
       </c>
       <c r="G4">
-        <v>0.0006726734177064005</v>
+        <v>0.03223830631240234</v>
       </c>
       <c r="H4">
-        <v>4.673999889601907E-05</v>
+        <v>6.307477853840808E-05</v>
       </c>
       <c r="I4">
-        <v>6.403698785488937E-06</v>
+        <v>3.560176024460209E-06</v>
       </c>
       <c r="J4">
-        <v>0.0005457582494415898</v>
+        <v>0.01770091745324896</v>
       </c>
       <c r="K4">
-        <v>0.003018374544438085</v>
+        <v>0.4456233253826027</v>
       </c>
       <c r="L4">
-        <v>0.00132348235439018</v>
+        <v>0.004682702986805968</v>
       </c>
       <c r="M4">
-        <v>7.170880123824218E-05</v>
+        <v>0.002402292253247127</v>
       </c>
       <c r="N4">
-        <v>6.976643900766331E-05</v>
+        <v>0.003659590438655223</v>
       </c>
       <c r="O4">
-        <v>1.278067866997873E-09</v>
+        <v>3.057861360296833E-08</v>
       </c>
       <c r="P4">
-        <v>3.521594432432286E-06</v>
+        <v>0.0002361993781425839</v>
       </c>
       <c r="Q4">
-        <v>4.721176991928717E-06</v>
+        <v>0.0003303129912550758</v>
       </c>
       <c r="R4">
-        <v>4.894953210438316E-06</v>
+        <v>0.0003394339756427528</v>
       </c>
       <c r="S4">
-        <v>0.0001057977631853149</v>
+        <v>0.001089369841345707</v>
       </c>
       <c r="T4">
-        <v>4.18419844494608E-11</v>
+        <v>5.673200565664793E-10</v>
       </c>
       <c r="U4">
-        <v>7.383799656403298E-09</v>
+        <v>4.149488744705344E-07</v>
       </c>
       <c r="V4">
-        <v>0.0001580186582814273</v>
+        <v>0.009560071295497305</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.0005473479027126305</v>
+        <v>0.003648298768081818</v>
       </c>
       <c r="C5">
-        <v>0.1114095295515804</v>
+        <v>1.54909743418241</v>
       </c>
       <c r="D5">
-        <v>0.02532106347238364</v>
+        <v>0.08621820806055434</v>
       </c>
       <c r="E5">
-        <v>0.03746388255215476</v>
+        <v>0.1116120252805082</v>
       </c>
       <c r="F5">
-        <v>0.9136830837016988</v>
+        <v>5.744517080799724</v>
       </c>
       <c r="G5">
-        <v>0.03223830652122459</v>
+        <v>0.3785024802090458</v>
       </c>
       <c r="H5">
-        <v>6.307477901979419E-05</v>
+        <v>0.0004711442001047956</v>
       </c>
       <c r="I5">
-        <v>3.560176060529597E-06</v>
+        <v>0.0002836216033925794</v>
       </c>
       <c r="J5">
-        <v>0.01770091773684154</v>
+        <v>0.063610407067083</v>
       </c>
       <c r="K5">
-        <v>0.4456233292912944</v>
+        <v>1.321808912741056</v>
       </c>
       <c r="L5">
-        <v>0.004682703033878047</v>
+        <v>0.2059085253813897</v>
       </c>
       <c r="M5">
-        <v>0.002402292293510346</v>
+        <v>0.160747582042501</v>
       </c>
       <c r="N5">
-        <v>0.00365959050739069</v>
+        <v>0.0284071520058528</v>
       </c>
       <c r="O5">
-        <v>3.057861383303933E-08</v>
+        <v>1.045237715597826E-06</v>
       </c>
       <c r="P5">
-        <v>0.0002361993801959296</v>
+        <v>0.00143601970984707</v>
       </c>
       <c r="Q5">
-        <v>0.0003303129944826211</v>
+        <v>0.002600770093677633</v>
       </c>
       <c r="R5">
-        <v>0.0003394339790776234</v>
+        <v>0.00274311417134797</v>
       </c>
       <c r="S5">
-        <v>0.001089369847128522</v>
+        <v>0.01952532260137308</v>
       </c>
       <c r="T5">
-        <v>5.673200614720285E-10</v>
+        <v>7.344565491247429E-09</v>
       </c>
       <c r="U5">
-        <v>4.149488783470022E-07</v>
+        <v>2.900468488545762E-06</v>
       </c>
       <c r="V5">
-        <v>0.009560071377192557</v>
+        <v>0.1277338077318099</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002504574691103717</v>
+        <v>0.002818221896174092</v>
       </c>
       <c r="C6">
-        <v>0.8677215029841205</v>
+        <v>0.8251822069908367</v>
       </c>
       <c r="D6">
-        <v>0.04535093143636985</v>
+        <v>0.04866138524179905</v>
       </c>
       <c r="E6">
-        <v>0.05623167918200671</v>
+        <v>0.06077206530793378</v>
       </c>
       <c r="F6">
-        <v>3.857771367741288</v>
+        <v>3.888002494007186</v>
       </c>
       <c r="G6">
-        <v>0.2280057281640619</v>
+        <v>0.2028633227751125</v>
       </c>
       <c r="H6">
-        <v>0.0002379471037595553</v>
+        <v>0.0003708441742537628</v>
       </c>
       <c r="I6">
-        <v>0.0002024796856863665</v>
+        <v>0.00021190091745003</v>
       </c>
       <c r="J6">
-        <v>0.03801000792276081</v>
+        <v>0.04389101566798859</v>
       </c>
       <c r="K6">
-        <v>0.7330004489858964</v>
+        <v>0.8864556607336793</v>
       </c>
       <c r="L6">
-        <v>0.0696259939998906</v>
+        <v>0.1589854449635562</v>
       </c>
       <c r="M6">
-        <v>0.1108730744351484</v>
+        <v>0.1147074106982291</v>
       </c>
       <c r="N6">
-        <v>0.02100997804366874</v>
+        <v>0.02042903660015439</v>
       </c>
       <c r="O6">
-        <v>1.148099433712077E-06</v>
+        <v>1.141032754490195E-06</v>
       </c>
       <c r="P6">
-        <v>0.0009402456728579312</v>
+        <v>0.001076236998287098</v>
       </c>
       <c r="Q6">
-        <v>0.001776367783030318</v>
+        <v>0.001804046841105249</v>
       </c>
       <c r="R6">
-        <v>0.001874016690375171</v>
+        <v>0.001881717175785557</v>
       </c>
       <c r="S6">
-        <v>0.02114228119947322</v>
+        <v>0.02223195810650969</v>
       </c>
       <c r="T6">
-        <v>4.427844828973721E-09</v>
+        <v>4.502260232904917E-09</v>
       </c>
       <c r="U6">
-        <v>1.739200672600396E-06</v>
+        <v>1.84285611755583E-06</v>
       </c>
       <c r="V6">
-        <v>0.07957165226444442</v>
+        <v>0.06425444695674611</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.0005781492427274235</v>
+        <v>0.0005781492380916243</v>
       </c>
       <c r="C7">
-        <v>0.2026360653961477</v>
+        <v>0.2026360647084039</v>
       </c>
       <c r="D7">
-        <v>0.006015986917001894</v>
+        <v>0.006015986690459076</v>
       </c>
       <c r="E7">
-        <v>0.007915604318065842</v>
+        <v>0.007915604025959396</v>
       </c>
       <c r="F7">
-        <v>0.5583825266762101</v>
+        <v>0.5583825032869445</v>
       </c>
       <c r="G7">
-        <v>0.09515669666415993</v>
+        <v>0.09515669650584613</v>
       </c>
       <c r="H7">
-        <v>5.070391786696718E-05</v>
+        <v>5.07039174324563E-05</v>
       </c>
       <c r="I7">
-        <v>6.930443871100906E-06</v>
+        <v>6.930443845205262E-06</v>
       </c>
       <c r="J7">
-        <v>0.009045009736050949</v>
+        <v>0.009045009523788724</v>
       </c>
       <c r="K7">
-        <v>0.1331272519043568</v>
+        <v>0.1331272485073503</v>
       </c>
       <c r="L7">
-        <v>0.01183923024961593</v>
+        <v>0.01183923018480569</v>
       </c>
       <c r="M7">
-        <v>0.00622344902985862</v>
+        <v>0.006223448989809889</v>
       </c>
       <c r="N7">
-        <v>0.00488558517597257</v>
+        <v>0.00488558513888651</v>
       </c>
       <c r="O7">
-        <v>6.109224142515054E-08</v>
+        <v>6.109224109761774E-08</v>
       </c>
       <c r="P7">
-        <v>0.0002646728682490472</v>
+        <v>0.0002646728661219914</v>
       </c>
       <c r="Q7">
-        <v>0.0004351791462142989</v>
+        <v>0.0004351791418714537</v>
       </c>
       <c r="R7">
-        <v>0.0004624809689586109</v>
+        <v>0.0004624809644617244</v>
       </c>
       <c r="S7">
-        <v>0.002271537477111327</v>
+        <v>0.002271537471322852</v>
       </c>
       <c r="T7">
-        <v>8.503408591137821E-10</v>
+        <v>8.503408545241858E-10</v>
       </c>
       <c r="U7">
-        <v>4.202994984522344E-07</v>
+        <v>4.202994949806303E-07</v>
       </c>
       <c r="V7">
-        <v>0.03483694574840697</v>
+        <v>0.03483694568883143</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>6.70031722483007E-06</v>
+        <v>0.0005142141005934914</v>
       </c>
       <c r="C8">
-        <v>0.002030465234392464</v>
+        <v>0.1468234750174995</v>
       </c>
       <c r="D8">
-        <v>6.742453420540697E-05</v>
+        <v>0.004967089149840875</v>
       </c>
       <c r="E8">
-        <v>8.95143631807417E-05</v>
+        <v>0.006680156260488962</v>
       </c>
       <c r="F8">
-        <v>0.006561236023946545</v>
+        <v>0.4259403133055403</v>
       </c>
       <c r="G8">
-        <v>0.0009081999589440927</v>
+        <v>0.08101698208793137</v>
       </c>
       <c r="H8">
-        <v>7.407663499306462E-07</v>
+        <v>4.241841841375875E-05</v>
       </c>
       <c r="I8">
-        <v>2.789308721489262E-07</v>
+        <v>6.119401243570504E-06</v>
       </c>
       <c r="J8">
-        <v>8.986618308471579E-05</v>
+        <v>0.006936706887952397</v>
       </c>
       <c r="K8">
-        <v>0.001906933198038364</v>
+        <v>0.1224556766298276</v>
       </c>
       <c r="L8">
-        <v>0.00015491779018565</v>
+        <v>0.007252575716014791</v>
       </c>
       <c r="M8">
-        <v>0.0007143758256802375</v>
+        <v>0.01530564068213586</v>
       </c>
       <c r="N8">
-        <v>0.0006225583479612004</v>
+        <v>0.002288302281484026</v>
       </c>
       <c r="O8">
-        <v>8.261620205829917E-10</v>
+        <v>3.214693312517258E-08</v>
       </c>
       <c r="P8">
-        <v>3.365580186823112E-06</v>
+        <v>0.0002243250443006807</v>
       </c>
       <c r="Q8">
-        <v>5.301223689883067E-06</v>
+        <v>0.0004438420140741797</v>
       </c>
       <c r="R8">
-        <v>5.624321376767221E-06</v>
+        <v>0.0004785348084436246</v>
       </c>
       <c r="S8">
-        <v>3.093410034080153E-05</v>
+        <v>0.001755203861496419</v>
       </c>
       <c r="T8">
-        <v>1.479547905936281E-11</v>
+        <v>7.551334526633466E-10</v>
       </c>
       <c r="U8">
-        <v>4.807741505648602E-09</v>
+        <v>3.325322783403728E-07</v>
       </c>
       <c r="V8">
-        <v>0.0004624424331008353</v>
+        <v>0.03133095944163506</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.000459707807054597</v>
+        <v>6.700317159180644E-06</v>
       </c>
       <c r="C9">
-        <v>0.1070782902289259</v>
+        <v>0.002030465225620723</v>
       </c>
       <c r="D9">
-        <v>0.004164260136178741</v>
+        <v>6.742453047929233E-05</v>
       </c>
       <c r="E9">
-        <v>0.00563202779827089</v>
+        <v>8.951435836395369E-05</v>
       </c>
       <c r="F9">
-        <v>0.3833743690335217</v>
+        <v>0.006561235673855828</v>
       </c>
       <c r="G9">
-        <v>0.05521716785094003</v>
+        <v>0.0009081999569219748</v>
       </c>
       <c r="H9">
-        <v>2.691376305471376E-05</v>
+        <v>7.40766342571984E-07</v>
       </c>
       <c r="I9">
-        <v>6.304627264782972E-06</v>
+        <v>2.78930871693052E-07</v>
       </c>
       <c r="J9">
-        <v>0.00563669481928923</v>
+        <v>8.986617930536877E-05</v>
       </c>
       <c r="K9">
-        <v>0.1083376169658192</v>
+        <v>0.001906933140010266</v>
       </c>
       <c r="L9">
-        <v>0.00713921499264727</v>
+        <v>0.000154917789506855</v>
       </c>
       <c r="M9">
-        <v>0.01002659769397036</v>
+        <v>0.0007143758247708101</v>
       </c>
       <c r="N9">
-        <v>0.007699558141220703</v>
+        <v>0.0006225583469750111</v>
       </c>
       <c r="O9">
-        <v>3.0565788958976E-08</v>
+        <v>8.261620183242931E-10</v>
       </c>
       <c r="P9">
-        <v>0.0001970293971827535</v>
+        <v>3.365580160921686E-06</v>
       </c>
       <c r="Q9">
-        <v>0.0004027196361668657</v>
+        <v>5.30122366023758E-06</v>
       </c>
       <c r="R9">
-        <v>0.0004317525093761767</v>
+        <v>5.624321345617954E-06</v>
       </c>
       <c r="S9">
-        <v>0.0015294384034249</v>
+        <v>3.093410026360511E-05</v>
       </c>
       <c r="T9">
-        <v>5.678734719865987E-10</v>
+        <v>1.47954789967821E-11</v>
       </c>
       <c r="U9">
-        <v>2.704242735273062E-07</v>
+        <v>4.807741455253776E-09</v>
       </c>
       <c r="V9">
-        <v>0.02286846112444958</v>
+        <v>0.0004624424323723597</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>9.422588113380166E-05</v>
+        <v>9.422588095789063E-05</v>
       </c>
       <c r="C10">
-        <v>0.03243189536349723</v>
+        <v>0.03243189536900044</v>
       </c>
       <c r="D10">
-        <v>0.001106786023250264</v>
+        <v>0.00110678600668379</v>
       </c>
       <c r="E10">
-        <v>0.001427523009725754</v>
+        <v>0.001427522988424535</v>
       </c>
       <c r="F10">
-        <v>0.1025072594717666</v>
+        <v>0.1025072573169607</v>
       </c>
       <c r="G10">
-        <v>0.01432989095919474</v>
+        <v>0.01432989096197988</v>
       </c>
       <c r="H10">
-        <v>9.109993042250734E-06</v>
+        <v>9.109993019665222E-06</v>
       </c>
       <c r="I10">
-        <v>1.07399253013502E-06</v>
+        <v>1.073992531681E-06</v>
       </c>
       <c r="J10">
-        <v>0.001538819958673495</v>
+        <v>0.001538819993760139</v>
       </c>
       <c r="K10">
-        <v>0.02373957299648263</v>
+        <v>0.02373957277752879</v>
       </c>
       <c r="L10">
-        <v>0.002051208604315106</v>
+        <v>0.00205120860092341</v>
       </c>
       <c r="M10">
-        <v>0.0007037848671322961</v>
+        <v>0.0007037848907318007</v>
       </c>
       <c r="N10">
-        <v>0.0005549222468210011</v>
+        <v>0.000554922257555286</v>
       </c>
       <c r="O10">
-        <v>8.26959290442425E-09</v>
+        <v>8.269592878411739E-09</v>
       </c>
       <c r="P10">
-        <v>4.537142481132222E-05</v>
+        <v>4.537142469902325E-05</v>
       </c>
       <c r="Q10">
-        <v>7.160943091232572E-05</v>
+        <v>7.16094306449583E-05</v>
       </c>
       <c r="R10">
-        <v>7.670196184181644E-05</v>
+        <v>7.6701961563405E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003679586714755895</v>
+        <v>0.0003679586712385384</v>
       </c>
       <c r="T10">
-        <v>1.351402138250597E-10</v>
+        <v>1.35140213923397E-10</v>
       </c>
       <c r="U10">
-        <v>7.003126439365376E-08</v>
+        <v>7.003126439395945E-08</v>
       </c>
       <c r="V10">
-        <v>0.005007019332489298</v>
+        <v>0.005007019334926147</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.002044196398713531</v>
+        <v>-0.00204419637904557</v>
       </c>
       <c r="C11">
-        <v>-2.481352492740934</v>
+        <v>-2.481352495021464</v>
       </c>
       <c r="D11">
-        <v>-0.04186986912283071</v>
+        <v>-0.04186986718212457</v>
       </c>
       <c r="E11">
-        <v>-0.05713111788490775</v>
+        <v>-0.05713111537631673</v>
       </c>
       <c r="F11">
-        <v>-2.287035213348966</v>
+        <v>-2.287035033970398</v>
       </c>
       <c r="G11">
-        <v>-0.2480134784536926</v>
+        <v>-0.2480134799510296</v>
       </c>
       <c r="H11">
-        <v>-0.0006770049361949746</v>
+        <v>-0.0006770049331384043</v>
       </c>
       <c r="I11">
-        <v>-5.37765725036312E-05</v>
+        <v>-5.377657245532569E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2721480292423751</v>
+        <v>-0.2721480275830908</v>
       </c>
       <c r="K11">
-        <v>-0.9818855802546094</v>
+        <v>-0.9818855493608475</v>
       </c>
       <c r="L11">
-        <v>-0.03679645560036902</v>
+        <v>-0.03679645533388078</v>
       </c>
       <c r="M11">
-        <v>-0.009861757200522502</v>
+        <v>-0.009861756353170511</v>
       </c>
       <c r="N11">
-        <v>-0.03895400211894998</v>
+        <v>-0.03895400170292455</v>
       </c>
       <c r="O11">
-        <v>-6.58168074334901E-07</v>
+        <v>-6.581680745704826E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0009343549538703578</v>
+        <v>-0.0009343549484718144</v>
       </c>
       <c r="Q11">
-        <v>-0.001837736476303231</v>
+        <v>-0.001837736491969356</v>
       </c>
       <c r="R11">
-        <v>-0.00197088643035006</v>
+        <v>-0.001970886450070403</v>
       </c>
       <c r="S11">
-        <v>-0.008419273756406906</v>
+        <v>-0.008419273731913845</v>
       </c>
       <c r="T11">
-        <v>-8.238229947408713E-09</v>
+        <v>-8.238229938947979E-09</v>
       </c>
       <c r="U11">
-        <v>-4.038304891622938E-06</v>
+        <v>-4.038304877756715E-06</v>
       </c>
       <c r="V11">
-        <v>-0.1021460393847231</v>
+        <v>-0.1021460400779775</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.002044196398333044</v>
+        <v>-0.002044196379189382</v>
       </c>
       <c r="C12">
-        <v>-2.4813524928339</v>
+        <v>-2.481352494593619</v>
       </c>
       <c r="D12">
-        <v>-0.0418698690249031</v>
+        <v>-0.04186986702865887</v>
       </c>
       <c r="E12">
-        <v>-0.05713111776207429</v>
+        <v>-0.05713111517860117</v>
       </c>
       <c r="F12">
-        <v>-2.287035206703154</v>
+        <v>-2.287035021317406</v>
       </c>
       <c r="G12">
-        <v>-0.2480134784837976</v>
+        <v>-0.2480134797703242</v>
       </c>
       <c r="H12">
-        <v>-0.0006770049360975668</v>
+        <v>-0.0006770049328409821</v>
       </c>
       <c r="I12">
-        <v>-5.377657250094218E-05</v>
+        <v>-5.377657244069622E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2721480292910999</v>
+        <v>-0.2721480274703113</v>
       </c>
       <c r="K12">
-        <v>-0.9818855790284623</v>
+        <v>-0.9818855471327521</v>
       </c>
       <c r="L12">
-        <v>-0.0367964556325791</v>
+        <v>-0.03679645534047439</v>
       </c>
       <c r="M12">
-        <v>-0.009861757386730558</v>
+        <v>-0.009861756715659078</v>
       </c>
       <c r="N12">
-        <v>-0.03895400212351226</v>
+        <v>-0.03895400169068426</v>
       </c>
       <c r="O12">
-        <v>-6.581680743065475E-07</v>
+        <v>-6.581680747703665E-07</v>
       </c>
       <c r="P12">
-        <v>-0.0009343549537944562</v>
+        <v>-0.0009343549490316631</v>
       </c>
       <c r="Q12">
-        <v>-0.001837736476584505</v>
+        <v>-0.001837736497052592</v>
       </c>
       <c r="R12">
-        <v>-0.001970886430654679</v>
+        <v>-0.00197088645468444</v>
       </c>
       <c r="S12">
-        <v>-0.008419273756276635</v>
+        <v>-0.008419273728277915</v>
       </c>
       <c r="T12">
-        <v>-8.238229949058972E-09</v>
+        <v>-8.238229941122425E-09</v>
       </c>
       <c r="U12">
-        <v>-4.038304891544153E-06</v>
+        <v>-4.038304876826917E-06</v>
       </c>
       <c r="V12">
-        <v>-0.1021460393979756</v>
+        <v>-0.1021460400133375</v>
       </c>
     </row>
     <row r="13" spans="1:22">

--- a/results/LCIA/LCIA_results_uniquie.xlsx
+++ b/results/LCIA/LCIA_results_uniquie.xlsx
@@ -88,10 +88,10 @@
     <t>'medical connector' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'packaging of glass vials with penicillin G' (unit, NO, None)</t>
-  </si>
-  <si>
-    <t>'packed box of penicillin' (unit, SE, None)</t>
+    <t>'packaging of a medicine strip' (unit, IN, None)</t>
+  </si>
+  <si>
+    <t>'packaging of glass vials with penicillin G' (unit, IN, None)</t>
   </si>
   <si>
     <t>'production of IV sets' (unit, RER, None)</t>
@@ -546,67 +546,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.008129370695716244</v>
+        <v>0.008129370972636682</v>
       </c>
       <c r="C2">
-        <v>2.265880850336156</v>
+        <v>2.265880905850572</v>
       </c>
       <c r="D2">
-        <v>0.1796234922074676</v>
+        <v>0.1796235017800943</v>
       </c>
       <c r="E2">
-        <v>0.2365080070114341</v>
+        <v>0.2365080194962113</v>
       </c>
       <c r="F2">
-        <v>8.818108620020977</v>
+        <v>8.818109447498323</v>
       </c>
       <c r="G2">
-        <v>0.6072375609908904</v>
+        <v>0.6072375731801687</v>
       </c>
       <c r="H2">
-        <v>0.001915808677453043</v>
+        <v>0.001915808705581232</v>
       </c>
       <c r="I2">
-        <v>0.0002082153765173074</v>
+        <v>0.0002082153796619638</v>
       </c>
       <c r="J2">
-        <v>0.4312754708958648</v>
+        <v>0.4312755049598606</v>
       </c>
       <c r="K2">
-        <v>4.10740454361543</v>
+        <v>4.107404694017821</v>
       </c>
       <c r="L2">
-        <v>1.190368312945629</v>
+        <v>1.190368315571515</v>
       </c>
       <c r="M2">
-        <v>0.07253609535142454</v>
+        <v>0.07253607387665503</v>
       </c>
       <c r="N2">
-        <v>0.1359272064653131</v>
+        <v>0.1359272155795362</v>
       </c>
       <c r="O2">
-        <v>1.063829392935665E-06</v>
+        <v>1.063829407047704E-06</v>
       </c>
       <c r="P2">
-        <v>0.003317429232728206</v>
+        <v>0.003317429361948087</v>
       </c>
       <c r="Q2">
-        <v>0.004422416867742256</v>
+        <v>0.004422417093423903</v>
       </c>
       <c r="R2">
-        <v>0.004567556166330486</v>
+        <v>0.004567556400594843</v>
       </c>
       <c r="S2">
-        <v>0.1200064134930158</v>
+        <v>0.1200064139215828</v>
       </c>
       <c r="T2">
-        <v>1.083474859330304E-08</v>
+        <v>1.083474868330144E-08</v>
       </c>
       <c r="U2">
-        <v>6.836226173468036E-06</v>
+        <v>6.836226454768461E-06</v>
       </c>
       <c r="V2">
-        <v>0.1609293286047035</v>
+        <v>0.1609293336108306</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -614,67 +614,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>8.49588496423555E-06</v>
+        <v>8.495885753322082E-06</v>
       </c>
       <c r="C3">
-        <v>0.002608180301199517</v>
+        <v>0.002608180408341938</v>
       </c>
       <c r="D3">
-        <v>0.0001124775847746949</v>
+        <v>0.0001124776274653329</v>
       </c>
       <c r="E3">
-        <v>0.0001498963660161549</v>
+        <v>0.0001498964211865132</v>
       </c>
       <c r="F3">
-        <v>0.005535752540869971</v>
+        <v>0.005535756368384016</v>
       </c>
       <c r="G3">
-        <v>0.0006726734099012684</v>
+        <v>0.0006726734345535404</v>
       </c>
       <c r="H3">
-        <v>4.673999887934856E-05</v>
+        <v>4.673999895845507E-05</v>
       </c>
       <c r="I3">
-        <v>6.403698784649995E-06</v>
+        <v>6.403698790454639E-06</v>
       </c>
       <c r="J3">
-        <v>0.0005457582357520327</v>
+        <v>0.0005457582907107153</v>
       </c>
       <c r="K3">
-        <v>0.003018374494305449</v>
+        <v>0.003018375147082562</v>
       </c>
       <c r="L3">
-        <v>0.001323482351792715</v>
+        <v>0.001323482358200592</v>
       </c>
       <c r="M3">
-        <v>7.170881597748767E-05</v>
+        <v>7.170881685406234E-05</v>
       </c>
       <c r="N3">
-        <v>6.976643490977473E-05</v>
+        <v>6.976644929399706E-05</v>
       </c>
       <c r="O3">
-        <v>1.278067859528642E-09</v>
+        <v>1.278067891200599E-09</v>
       </c>
       <c r="P3">
-        <v>3.521594376198354E-06</v>
+        <v>3.521594694868975E-06</v>
       </c>
       <c r="Q3">
-        <v>4.721176863451457E-06</v>
+        <v>4.721177280217548E-06</v>
       </c>
       <c r="R3">
-        <v>4.894953070982019E-06</v>
+        <v>4.894953505084131E-06</v>
       </c>
       <c r="S3">
-        <v>0.0001057977629858891</v>
+        <v>0.0001057977638265564</v>
       </c>
       <c r="T3">
-        <v>4.184198443453184E-11</v>
+        <v>4.184198509764753E-11</v>
       </c>
       <c r="U3">
-        <v>7.38379953345289E-09</v>
+        <v>7.383800166701074E-09</v>
       </c>
       <c r="V3">
-        <v>0.0001580186552631967</v>
+        <v>0.0001580186648482065</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -682,67 +682,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.0005473478976743189</v>
+        <v>0.000547347900190256</v>
       </c>
       <c r="C4">
-        <v>0.1114095287569723</v>
+        <v>0.1114095291589801</v>
       </c>
       <c r="D4">
-        <v>0.02532106321273271</v>
+        <v>0.02532106335763596</v>
       </c>
       <c r="E4">
-        <v>0.03746388221697419</v>
+        <v>0.03746388240302675</v>
       </c>
       <c r="F4">
-        <v>0.9136830596574729</v>
+        <v>0.9136830724441687</v>
       </c>
       <c r="G4">
-        <v>0.03223830631240234</v>
+        <v>0.03223830643204972</v>
       </c>
       <c r="H4">
-        <v>6.307477853840808E-05</v>
+        <v>6.307477875489506E-05</v>
       </c>
       <c r="I4">
-        <v>3.560176024460209E-06</v>
+        <v>3.560176036849539E-06</v>
       </c>
       <c r="J4">
-        <v>0.01770091745324896</v>
+        <v>0.01770091755073896</v>
       </c>
       <c r="K4">
-        <v>0.4456233253826027</v>
+        <v>0.4456233274222009</v>
       </c>
       <c r="L4">
-        <v>0.004682702986805968</v>
+        <v>0.00468270300076952</v>
       </c>
       <c r="M4">
-        <v>0.002402292253247127</v>
+        <v>0.002402292252623914</v>
       </c>
       <c r="N4">
-        <v>0.003659590438655223</v>
+        <v>0.003659590466398976</v>
       </c>
       <c r="O4">
-        <v>3.057861360296833E-08</v>
+        <v>3.057861371430306E-08</v>
       </c>
       <c r="P4">
-        <v>0.0002361993781425839</v>
+        <v>0.0002361993791231943</v>
       </c>
       <c r="Q4">
-        <v>0.0003303129912550758</v>
+        <v>0.0003303129932298605</v>
       </c>
       <c r="R4">
-        <v>0.0003394339756427528</v>
+        <v>0.0003394339778001359</v>
       </c>
       <c r="S4">
-        <v>0.001089369841345707</v>
+        <v>0.001089369843945439</v>
       </c>
       <c r="T4">
-        <v>5.673200565664793E-10</v>
+        <v>5.673200589091939E-10</v>
       </c>
       <c r="U4">
-        <v>4.149488744705344E-07</v>
+        <v>4.14948876256048E-07</v>
       </c>
       <c r="V4">
-        <v>0.009560071295497305</v>
+        <v>0.009560071346919552</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -750,67 +750,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.003648298768081818</v>
+        <v>0.004127644734704347</v>
       </c>
       <c r="C5">
-        <v>1.54909743418241</v>
+        <v>1.27533890565703</v>
       </c>
       <c r="D5">
-        <v>0.08621820806055434</v>
+        <v>0.05926031948044273</v>
       </c>
       <c r="E5">
-        <v>0.1116120252805082</v>
+        <v>0.07567507739098654</v>
       </c>
       <c r="F5">
-        <v>5.744517080799724</v>
+        <v>3.718791111144217</v>
       </c>
       <c r="G5">
-        <v>0.3785024802090458</v>
+        <v>0.3059216454000824</v>
       </c>
       <c r="H5">
-        <v>0.0004711442001047956</v>
+        <v>0.0007951626940993069</v>
       </c>
       <c r="I5">
-        <v>0.0002836216033925794</v>
+        <v>0.0001900334479070524</v>
       </c>
       <c r="J5">
-        <v>0.063610407067083</v>
+        <v>0.06772594059767445</v>
       </c>
       <c r="K5">
-        <v>1.321808912741056</v>
+        <v>1.462582931526568</v>
       </c>
       <c r="L5">
-        <v>0.2059085253813897</v>
+        <v>0.04264696958854129</v>
       </c>
       <c r="M5">
-        <v>0.160747582042501</v>
+        <v>0.07562904023942302</v>
       </c>
       <c r="N5">
-        <v>0.0284071520058528</v>
+        <v>0.01556638209947068</v>
       </c>
       <c r="O5">
-        <v>1.045237715597826E-06</v>
+        <v>1.149254024790049E-06</v>
       </c>
       <c r="P5">
-        <v>0.00143601970984707</v>
+        <v>0.002516035467795301</v>
       </c>
       <c r="Q5">
-        <v>0.002600770093677633</v>
+        <v>0.002733379680740066</v>
       </c>
       <c r="R5">
-        <v>0.00274311417134797</v>
+        <v>0.002797253966459998</v>
       </c>
       <c r="S5">
-        <v>0.01952532260137308</v>
+        <v>0.02129159729672883</v>
       </c>
       <c r="T5">
-        <v>7.344565491247429E-09</v>
+        <v>6.103053087987278E-09</v>
       </c>
       <c r="U5">
-        <v>2.900468488545762E-06</v>
+        <v>3.374060996404466E-06</v>
       </c>
       <c r="V5">
-        <v>0.1277338077318099</v>
+        <v>0.05744126286617847</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -818,67 +818,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.002818221896174092</v>
+        <v>0.005136090472990991</v>
       </c>
       <c r="C6">
-        <v>0.8251822069908367</v>
+        <v>1.70116044094871</v>
       </c>
       <c r="D6">
-        <v>0.04866138524179905</v>
+        <v>0.08435702023067994</v>
       </c>
       <c r="E6">
-        <v>0.06077206530793378</v>
+        <v>0.1107906690747557</v>
       </c>
       <c r="F6">
-        <v>3.888002494007186</v>
+        <v>5.436466919093481</v>
       </c>
       <c r="G6">
-        <v>0.2028633227751125</v>
+        <v>0.4513670394486844</v>
       </c>
       <c r="H6">
-        <v>0.0003708441742537628</v>
+        <v>0.000833942016943935</v>
       </c>
       <c r="I6">
-        <v>0.00021190091745003</v>
+        <v>0.0002047344632426096</v>
       </c>
       <c r="J6">
-        <v>0.04389101566798859</v>
+        <v>0.08416753873276021</v>
       </c>
       <c r="K6">
-        <v>0.8864556607336793</v>
+        <v>1.890933573658747</v>
       </c>
       <c r="L6">
-        <v>0.1589854449635562</v>
+        <v>0.05036291804505987</v>
       </c>
       <c r="M6">
-        <v>0.1147074106982291</v>
+        <v>0.1839727914723226</v>
       </c>
       <c r="N6">
-        <v>0.02042903660015439</v>
+        <v>0.02199159834034233</v>
       </c>
       <c r="O6">
-        <v>1.141032754490195E-06</v>
+        <v>8.827786542256732E-07</v>
       </c>
       <c r="P6">
-        <v>0.001076236998287098</v>
+        <v>0.003063115433498082</v>
       </c>
       <c r="Q6">
-        <v>0.001804046841105249</v>
+        <v>0.003987861003135543</v>
       </c>
       <c r="R6">
-        <v>0.001881717175785557</v>
+        <v>0.004131581807415125</v>
       </c>
       <c r="S6">
-        <v>0.02223195810650969</v>
+        <v>0.01354260148368089</v>
       </c>
       <c r="T6">
-        <v>4.502260232904917E-09</v>
+        <v>8.708565242940111E-09</v>
       </c>
       <c r="U6">
-        <v>1.84285611755583E-06</v>
+        <v>4.249121502930794E-06</v>
       </c>
       <c r="V6">
-        <v>0.06425444695674611</v>
+        <v>0.1113728225514604</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -886,67 +886,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.0005781492380916243</v>
+        <v>0.0005781492426853665</v>
       </c>
       <c r="C7">
-        <v>0.2026360647084039</v>
+        <v>0.2026360653104243</v>
       </c>
       <c r="D7">
-        <v>0.006015986690459076</v>
+        <v>0.006015986912217879</v>
       </c>
       <c r="E7">
-        <v>0.007915604025959396</v>
+        <v>0.007915604310731645</v>
       </c>
       <c r="F7">
-        <v>0.5583825032869445</v>
+        <v>0.5583825223940457</v>
       </c>
       <c r="G7">
-        <v>0.09515669650584613</v>
+        <v>0.09515669665830574</v>
       </c>
       <c r="H7">
-        <v>5.07039174324563E-05</v>
+        <v>5.070391779006241E-05</v>
       </c>
       <c r="I7">
-        <v>6.930443845205262E-06</v>
+        <v>6.930443877809938E-06</v>
       </c>
       <c r="J7">
-        <v>0.009045009523788724</v>
+        <v>0.009045009649851813</v>
       </c>
       <c r="K7">
-        <v>0.1331272485073503</v>
+        <v>0.1331272517842481</v>
       </c>
       <c r="L7">
-        <v>0.01183923018480569</v>
+        <v>0.01183923022386342</v>
       </c>
       <c r="M7">
-        <v>0.006223448989809889</v>
+        <v>0.006223449175478697</v>
       </c>
       <c r="N7">
-        <v>0.00488558513888651</v>
+        <v>0.004885585184842223</v>
       </c>
       <c r="O7">
-        <v>6.109224109761774E-08</v>
+        <v>6.109224133348839E-08</v>
       </c>
       <c r="P7">
-        <v>0.0002646728661219914</v>
+        <v>0.0002646728678642076</v>
       </c>
       <c r="Q7">
-        <v>0.0004351791418714537</v>
+        <v>0.0004351791453672003</v>
       </c>
       <c r="R7">
-        <v>0.0004624809644617244</v>
+        <v>0.0004624809681352385</v>
       </c>
       <c r="S7">
-        <v>0.002271537471322852</v>
+        <v>0.002271537476411456</v>
       </c>
       <c r="T7">
-        <v>8.503408545241858E-10</v>
+        <v>8.503408599468337E-10</v>
       </c>
       <c r="U7">
-        <v>4.202994949806303E-07</v>
+        <v>4.202994978145868E-07</v>
       </c>
       <c r="V7">
-        <v>0.03483694568883143</v>
+        <v>0.03483694575232352</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -954,67 +954,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.0005142141005934914</v>
+        <v>0.0005142141027116665</v>
       </c>
       <c r="C8">
-        <v>0.1468234750174995</v>
+        <v>0.1468234752796564</v>
       </c>
       <c r="D8">
-        <v>0.004967089149840875</v>
+        <v>0.004967089276457261</v>
       </c>
       <c r="E8">
-        <v>0.006680156260488962</v>
+        <v>0.00668015642272304</v>
       </c>
       <c r="F8">
-        <v>0.4259403133055403</v>
+        <v>0.4259403249375295</v>
       </c>
       <c r="G8">
-        <v>0.08101698208793137</v>
+        <v>0.08101698215719084</v>
       </c>
       <c r="H8">
-        <v>4.241841841375875E-05</v>
+        <v>4.241841862176501E-05</v>
       </c>
       <c r="I8">
-        <v>6.119401243570504E-06</v>
+        <v>6.119401264841516E-06</v>
       </c>
       <c r="J8">
-        <v>0.006936706887952397</v>
+        <v>0.006936707035939346</v>
       </c>
       <c r="K8">
-        <v>0.1224556766298276</v>
+        <v>0.1224556784345777</v>
       </c>
       <c r="L8">
-        <v>0.007252575716014791</v>
+        <v>0.007252575735192031</v>
       </c>
       <c r="M8">
-        <v>0.01530564068213586</v>
+        <v>0.01530564100299745</v>
       </c>
       <c r="N8">
-        <v>0.002288302281484026</v>
+        <v>0.002288302320334478</v>
       </c>
       <c r="O8">
-        <v>3.214693312517258E-08</v>
+        <v>3.214693323880788E-08</v>
       </c>
       <c r="P8">
-        <v>0.0002243250443006807</v>
+        <v>0.0002243250451246979</v>
       </c>
       <c r="Q8">
-        <v>0.0004438420140741797</v>
+        <v>0.0004438420158157067</v>
       </c>
       <c r="R8">
-        <v>0.0004785348084436246</v>
+        <v>0.0004785348102994414</v>
       </c>
       <c r="S8">
-        <v>0.001755203861496419</v>
+        <v>0.001755203864357067</v>
       </c>
       <c r="T8">
-        <v>7.551334526633466E-10</v>
+        <v>7.55133457310695E-10</v>
       </c>
       <c r="U8">
-        <v>3.325322783403728E-07</v>
+        <v>3.325322800122735E-07</v>
       </c>
       <c r="V8">
-        <v>0.03133095944163506</v>
+        <v>0.03133095947467988</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1022,67 +1022,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>6.700317159180644E-06</v>
+        <v>6.700317213379794E-06</v>
       </c>
       <c r="C9">
-        <v>0.002030465225620723</v>
+        <v>0.002030465233637712</v>
       </c>
       <c r="D9">
-        <v>6.742453047929233E-05</v>
+        <v>6.742453353728148E-05</v>
       </c>
       <c r="E9">
-        <v>8.951435836395369E-05</v>
+        <v>8.951436231773329E-05</v>
       </c>
       <c r="F9">
-        <v>0.006561235673855828</v>
+        <v>0.006561235946916553</v>
       </c>
       <c r="G9">
-        <v>0.0009081999569219748</v>
+        <v>0.0009081999587447116</v>
       </c>
       <c r="H9">
-        <v>7.40766342571984E-07</v>
+        <v>7.407663486193835E-07</v>
       </c>
       <c r="I9">
-        <v>2.78930871693052E-07</v>
+        <v>2.789308721139515E-07</v>
       </c>
       <c r="J9">
-        <v>8.986617930536877E-05</v>
+        <v>8.986618378972741E-05</v>
       </c>
       <c r="K9">
-        <v>0.001906933140010266</v>
+        <v>0.00190693318648175</v>
       </c>
       <c r="L9">
-        <v>0.000154917789506855</v>
+        <v>0.0001549177900959045</v>
       </c>
       <c r="M9">
-        <v>0.0007143758247708101</v>
+        <v>0.0007143758259281868</v>
       </c>
       <c r="N9">
-        <v>0.0006225583469750111</v>
+        <v>0.0006225583481733938</v>
       </c>
       <c r="O9">
-        <v>8.261620183242931E-10</v>
+        <v>8.261620202945394E-10</v>
       </c>
       <c r="P9">
-        <v>3.365580160921686E-06</v>
+        <v>3.365580182704953E-06</v>
       </c>
       <c r="Q9">
-        <v>5.30122366023758E-06</v>
+        <v>5.301223686629886E-06</v>
       </c>
       <c r="R9">
-        <v>5.624321345617954E-06</v>
+        <v>5.62432137359436E-06</v>
       </c>
       <c r="S9">
-        <v>3.093410026360511E-05</v>
+        <v>3.093410033600188E-05</v>
       </c>
       <c r="T9">
-        <v>1.47954789967821E-11</v>
+        <v>1.479547905430438E-11</v>
       </c>
       <c r="U9">
-        <v>4.807741455253776E-09</v>
+        <v>4.807741502052848E-09</v>
       </c>
       <c r="V9">
-        <v>0.0004624424323723597</v>
+        <v>0.0004624424330911274</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1090,67 +1090,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>9.422588095789063E-05</v>
+        <v>9.422588096255795E-05</v>
       </c>
       <c r="C10">
-        <v>0.03243189536900044</v>
+        <v>0.03243189526997198</v>
       </c>
       <c r="D10">
-        <v>0.00110678600668379</v>
+        <v>0.00110678603183899</v>
       </c>
       <c r="E10">
-        <v>0.001427522988424535</v>
+        <v>0.001427523019697037</v>
       </c>
       <c r="F10">
-        <v>0.1025072573169607</v>
+        <v>0.1025072591238782</v>
       </c>
       <c r="G10">
-        <v>0.01432989096197988</v>
+        <v>0.01432989093896514</v>
       </c>
       <c r="H10">
-        <v>9.109993019665222E-06</v>
+        <v>9.109993014683579E-06</v>
       </c>
       <c r="I10">
-        <v>1.073992531681E-06</v>
+        <v>1.073992527196308E-06</v>
       </c>
       <c r="J10">
-        <v>0.001538819993760139</v>
+        <v>0.001538819883490136</v>
       </c>
       <c r="K10">
-        <v>0.02373957277752879</v>
+        <v>0.02373957309752509</v>
       </c>
       <c r="L10">
-        <v>0.00205120860092341</v>
+        <v>0.002051208598688562</v>
       </c>
       <c r="M10">
-        <v>0.0007037848907318007</v>
+        <v>0.000703784897674037</v>
       </c>
       <c r="N10">
-        <v>0.000554922257555286</v>
+        <v>0.0005549222369886393</v>
       </c>
       <c r="O10">
-        <v>8.269592878411739E-09</v>
+        <v>8.269592868305048E-09</v>
       </c>
       <c r="P10">
-        <v>4.537142469902325E-05</v>
+        <v>4.537142459649598E-05</v>
       </c>
       <c r="Q10">
-        <v>7.16094306449583E-05</v>
+        <v>7.160943048069818E-05</v>
       </c>
       <c r="R10">
-        <v>7.6701961563405E-05</v>
+        <v>7.670196139819002E-05</v>
       </c>
       <c r="S10">
-        <v>0.0003679586712385384</v>
+        <v>0.0003679586707410118</v>
       </c>
       <c r="T10">
-        <v>1.35140213923397E-10</v>
+        <v>1.351402137252946E-10</v>
       </c>
       <c r="U10">
-        <v>7.003126439395945E-08</v>
+        <v>7.003126394311233E-08</v>
       </c>
       <c r="V10">
-        <v>0.005007019334926147</v>
+        <v>0.005007019325776086</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1158,67 +1158,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.00204419637904557</v>
+        <v>-0.002044196349808889</v>
       </c>
       <c r="C11">
-        <v>-2.481352495021464</v>
+        <v>-2.48135249032756</v>
       </c>
       <c r="D11">
-        <v>-0.04186986718212457</v>
+        <v>-0.04186986662215726</v>
       </c>
       <c r="E11">
-        <v>-0.05713111537631673</v>
+        <v>-0.05713111463381264</v>
       </c>
       <c r="F11">
-        <v>-2.287035033970398</v>
+        <v>-2.287034954699321</v>
       </c>
       <c r="G11">
-        <v>-0.2480134799510296</v>
+        <v>-0.2480134785690571</v>
       </c>
       <c r="H11">
-        <v>-0.0006770049331384043</v>
+        <v>-0.0006770049319318957</v>
       </c>
       <c r="I11">
-        <v>-5.377657245532569E-05</v>
+        <v>-5.377657233807835E-05</v>
       </c>
       <c r="J11">
-        <v>-0.2721480275830908</v>
+        <v>-0.2721480269689626</v>
       </c>
       <c r="K11">
-        <v>-0.9818855493608475</v>
+        <v>-0.9818855389942376</v>
       </c>
       <c r="L11">
-        <v>-0.03679645533388078</v>
+        <v>-0.03679645555472368</v>
       </c>
       <c r="M11">
-        <v>-0.009861756353170511</v>
+        <v>-0.009861754178577807</v>
       </c>
       <c r="N11">
-        <v>-0.03895400170292455</v>
+        <v>-0.0389540015093417</v>
       </c>
       <c r="O11">
-        <v>-6.581680745704826E-07</v>
+        <v>-6.581680723042785E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0009343549484718144</v>
+        <v>-0.0009343549336100093</v>
       </c>
       <c r="Q11">
-        <v>-0.001837736491969356</v>
+        <v>-0.001837736448480481</v>
       </c>
       <c r="R11">
-        <v>-0.001970886450070403</v>
+        <v>-0.001970886405068049</v>
       </c>
       <c r="S11">
-        <v>-0.008419273731913845</v>
+        <v>-0.008419273724040848</v>
       </c>
       <c r="T11">
-        <v>-8.238229938947979E-09</v>
+        <v>-8.23822989231924E-09</v>
       </c>
       <c r="U11">
-        <v>-4.038304877756715E-06</v>
+        <v>-4.038304859599133E-06</v>
       </c>
       <c r="V11">
-        <v>-0.1021460400779775</v>
+        <v>-0.1021460394984421</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1226,67 +1226,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>-0.002044196379189382</v>
+        <v>-0.002044196345923233</v>
       </c>
       <c r="C12">
-        <v>-2.481352494593619</v>
+        <v>-2.481352491128744</v>
       </c>
       <c r="D12">
-        <v>-0.04186986702865887</v>
+        <v>-0.04186986592582911</v>
       </c>
       <c r="E12">
-        <v>-0.05713111517860117</v>
+        <v>-0.05713111372101499</v>
       </c>
       <c r="F12">
-        <v>-2.287035021317406</v>
+        <v>-2.287034902438124</v>
       </c>
       <c r="G12">
-        <v>-0.2480134797703242</v>
+        <v>-0.2480134788546212</v>
       </c>
       <c r="H12">
-        <v>-0.0006770049328409821</v>
+        <v>-0.0006770049315191963</v>
       </c>
       <c r="I12">
-        <v>-5.377657244069622E-05</v>
+        <v>-5.377657236395308E-05</v>
       </c>
       <c r="J12">
-        <v>-0.2721480274703113</v>
+        <v>-0.2721480276909837</v>
       </c>
       <c r="K12">
-        <v>-0.9818855471327521</v>
+        <v>-0.9818855285308774</v>
       </c>
       <c r="L12">
-        <v>-0.03679645534047439</v>
+        <v>-0.03679645564434684</v>
       </c>
       <c r="M12">
-        <v>-0.009861756715659078</v>
+        <v>-0.00986175533304365</v>
       </c>
       <c r="N12">
-        <v>-0.03895400169068426</v>
+        <v>-0.03895400162301977</v>
       </c>
       <c r="O12">
-        <v>-6.581680747703665E-07</v>
+        <v>-6.581680726821724E-07</v>
       </c>
       <c r="P12">
-        <v>-0.0009343549490316631</v>
+        <v>-0.0009343549347620122</v>
       </c>
       <c r="Q12">
-        <v>-0.001837736497052592</v>
+        <v>-0.001837736456216982</v>
       </c>
       <c r="R12">
-        <v>-0.00197088645468444</v>
+        <v>-0.00197088641274709</v>
       </c>
       <c r="S12">
-        <v>-0.008419273728277915</v>
+        <v>-0.008419273726854757</v>
       </c>
       <c r="T12">
-        <v>-8.238229941122425E-09</v>
+        <v>-8.238229903527314E-09</v>
       </c>
       <c r="U12">
-        <v>-4.038304876826917E-06</v>
+        <v>-4.038304861095362E-06</v>
       </c>
       <c r="V12">
-        <v>-0.1021460400133375</v>
+        <v>-0.1021460396188791</v>
       </c>
     </row>
     <row r="13" spans="1:22">
